--- a/Final Project/simulation.xlsx
+++ b/Final Project/simulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgy/Downloads/AI_Proj/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51E5FCF-BA53-514A-91BD-9E34D87D49C2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E19FB9-4114-974E-AF34-FF10980C2C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{CB718146-76ED-6B4B-ABE4-D20C3144D41F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CB718146-76ED-6B4B-ABE4-D20C3144D41F}"/>
   </bookViews>
   <sheets>
     <sheet name="hyper" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>tme in sec</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>mcts</t>
-  </si>
-  <si>
-    <t>expectimax</t>
   </si>
   <si>
     <t>algo</t>
@@ -80,10 +77,40 @@
     <t>std</t>
   </si>
   <si>
-    <t>MCTS</t>
+    <t>avg time</t>
   </si>
   <si>
-    <t>avg time</t>
+    <t>MCTS_default</t>
+  </si>
+  <si>
+    <t>rollout</t>
+  </si>
+  <si>
+    <t>rollout_default</t>
+  </si>
+  <si>
+    <t>2.2 GHz Intel Core i7</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>16 GB 1600 MHz DDR3</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>Intel Iris Pro 1536 MB</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>rollout_smooth</t>
+  </si>
+  <si>
+    <t>rollout_depth5</t>
   </si>
 </sst>
 </file>
@@ -450,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4803BA00-13C4-D94B-9AED-D7BFB6F44303}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,38 +491,47 @@
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -523,8 +559,14 @@
       <c r="I2">
         <v>6698</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J2">
+        <v>12948</v>
+      </c>
+      <c r="K2">
+        <v>15214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -551,6 +593,36 @@
       </c>
       <c r="I3">
         <v>100</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -560,9 +632,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496C838B-E0FA-174D-B6C2-D799DE97087C}">
-  <dimension ref="A1:I101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -574,38 +648,43 @@
     <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>7</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>8</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="J1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1012</v>
       </c>
@@ -630,8 +709,14 @@
       <c r="H2" s="1">
         <v>1908</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" s="1">
+        <v>5380</v>
+      </c>
+      <c r="J2" s="1">
+        <v>3140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3028</v>
       </c>
@@ -656,8 +741,14 @@
       <c r="H3">
         <v>1028</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I3">
+        <v>5568</v>
+      </c>
+      <c r="J3">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1120</v>
       </c>
@@ -682,8 +773,14 @@
       <c r="H4">
         <v>3132</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I4">
+        <v>6884</v>
+      </c>
+      <c r="J4">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1132</v>
       </c>
@@ -708,8 +805,14 @@
       <c r="H5">
         <v>1272</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I5">
+        <v>6560</v>
+      </c>
+      <c r="J5">
+        <v>2916</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1460</v>
       </c>
@@ -734,8 +837,14 @@
       <c r="H6">
         <v>2452</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I6">
+        <v>3288</v>
+      </c>
+      <c r="J6">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1456</v>
       </c>
@@ -760,8 +869,14 @@
       <c r="H7">
         <v>3576</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I7">
+        <v>1056</v>
+      </c>
+      <c r="J7">
+        <v>5572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>616</v>
       </c>
@@ -786,8 +901,14 @@
       <c r="H8">
         <v>2012</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I8">
+        <v>1340</v>
+      </c>
+      <c r="J8">
+        <v>3060</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1412</v>
       </c>
@@ -812,8 +933,14 @@
       <c r="H9">
         <v>1776</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I9">
+        <v>3616</v>
+      </c>
+      <c r="J9">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1440</v>
       </c>
@@ -838,8 +965,14 @@
       <c r="H10">
         <v>1548</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I10">
+        <v>11464</v>
+      </c>
+      <c r="J10">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1332</v>
       </c>
@@ -864,8 +997,14 @@
       <c r="H11">
         <v>1824</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I11">
+        <v>6328</v>
+      </c>
+      <c r="J11">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1120</v>
       </c>
@@ -890,8 +1029,14 @@
       <c r="H12">
         <v>4932</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I12">
+        <v>5348</v>
+      </c>
+      <c r="J12">
+        <v>6424</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>820</v>
       </c>
@@ -916,8 +1061,14 @@
       <c r="H13">
         <v>1740</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I13">
+        <v>1352</v>
+      </c>
+      <c r="J13">
+        <v>5264</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1088</v>
       </c>
@@ -942,8 +1093,14 @@
       <c r="H14">
         <v>540</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I14">
+        <v>4484</v>
+      </c>
+      <c r="J14">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1276</v>
       </c>
@@ -968,8 +1125,14 @@
       <c r="H15">
         <v>1540</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I15">
+        <v>1180</v>
+      </c>
+      <c r="J15">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>484</v>
       </c>
@@ -994,8 +1157,14 @@
       <c r="H16">
         <v>3380</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16">
+        <v>6596</v>
+      </c>
+      <c r="J16">
+        <v>3332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>732</v>
       </c>
@@ -1020,8 +1189,14 @@
       <c r="H17">
         <v>3576</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17">
+        <v>4880</v>
+      </c>
+      <c r="J17">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1316</v>
       </c>
@@ -1046,8 +1221,14 @@
       <c r="H18">
         <v>3420</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I18">
+        <v>2280</v>
+      </c>
+      <c r="J18">
+        <v>5072</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1132</v>
       </c>
@@ -1072,8 +1253,14 @@
       <c r="H19">
         <v>3164</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I19">
+        <v>1404</v>
+      </c>
+      <c r="J19">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>796</v>
       </c>
@@ -1098,8 +1285,14 @@
       <c r="H20">
         <v>2560</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I20">
+        <v>6792</v>
+      </c>
+      <c r="J20">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1312</v>
       </c>
@@ -1124,8 +1317,14 @@
       <c r="H21">
         <v>6364</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I21">
+        <v>2680</v>
+      </c>
+      <c r="J21">
+        <v>6028</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>748</v>
       </c>
@@ -1150,8 +1349,14 @@
       <c r="H22">
         <v>2264</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I22">
+        <v>3476</v>
+      </c>
+      <c r="J22">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1332</v>
       </c>
@@ -1176,8 +1381,14 @@
       <c r="H23">
         <v>2628</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I23">
+        <v>2432</v>
+      </c>
+      <c r="J23">
+        <v>2672</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2060</v>
       </c>
@@ -1202,8 +1413,14 @@
       <c r="H24">
         <v>1436</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I24">
+        <v>5988</v>
+      </c>
+      <c r="J24">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>896</v>
       </c>
@@ -1228,8 +1445,14 @@
       <c r="H25">
         <v>3112</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I25">
+        <v>2452</v>
+      </c>
+      <c r="J25">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>156</v>
       </c>
@@ -1254,8 +1477,14 @@
       <c r="H26">
         <v>1620</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I26">
+        <v>6276</v>
+      </c>
+      <c r="J26">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1448</v>
       </c>
@@ -1280,8 +1509,14 @@
       <c r="H27">
         <v>1368</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I27">
+        <v>7112</v>
+      </c>
+      <c r="J27">
+        <v>6204</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>676</v>
       </c>
@@ -1306,8 +1541,14 @@
       <c r="H28">
         <v>4728</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I28">
+        <v>1264</v>
+      </c>
+      <c r="J28">
+        <v>2692</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1120</v>
       </c>
@@ -1332,8 +1573,14 @@
       <c r="H29">
         <v>2296</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I29">
+        <v>4940</v>
+      </c>
+      <c r="J29">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1112</v>
       </c>
@@ -1358,8 +1605,14 @@
       <c r="H30">
         <v>1512</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I30">
+        <v>7072</v>
+      </c>
+      <c r="J30">
+        <v>3328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>460</v>
       </c>
@@ -1384,8 +1637,14 @@
       <c r="H31">
         <v>3036</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I31">
+        <v>1352</v>
+      </c>
+      <c r="J31">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>684</v>
       </c>
@@ -1410,8 +1669,14 @@
       <c r="H32">
         <v>1176</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I32">
+        <v>5312</v>
+      </c>
+      <c r="J32">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1008</v>
       </c>
@@ -1436,8 +1701,14 @@
       <c r="H33">
         <v>2280</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I33">
+        <v>1552</v>
+      </c>
+      <c r="J33">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>808</v>
       </c>
@@ -1462,8 +1733,14 @@
       <c r="H34">
         <v>4616</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I34">
+        <v>1172</v>
+      </c>
+      <c r="J34">
+        <v>5416</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1052</v>
       </c>
@@ -1488,8 +1765,14 @@
       <c r="H35">
         <v>3392</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I35">
+        <v>7380</v>
+      </c>
+      <c r="J35">
+        <v>6284</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1388</v>
       </c>
@@ -1514,8 +1797,14 @@
       <c r="H36">
         <v>2308</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I36">
+        <v>6356</v>
+      </c>
+      <c r="J36">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>564</v>
       </c>
@@ -1540,8 +1829,14 @@
       <c r="H37">
         <v>2624</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I37">
+        <v>5612</v>
+      </c>
+      <c r="J37">
+        <v>7188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1080</v>
       </c>
@@ -1566,8 +1861,14 @@
       <c r="H38">
         <v>2496</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I38">
+        <v>3124</v>
+      </c>
+      <c r="J38">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>632</v>
       </c>
@@ -1592,8 +1893,14 @@
       <c r="H39">
         <v>3104</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I39">
+        <v>1108</v>
+      </c>
+      <c r="J39">
+        <v>2684</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>128</v>
       </c>
@@ -1618,8 +1925,14 @@
       <c r="H40">
         <v>1256</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I40">
+        <v>3640</v>
+      </c>
+      <c r="J40">
+        <v>5228</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1228</v>
       </c>
@@ -1644,8 +1957,14 @@
       <c r="H41">
         <v>2484</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I41">
+        <v>4940</v>
+      </c>
+      <c r="J41">
+        <v>6864</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>820</v>
       </c>
@@ -1670,8 +1989,14 @@
       <c r="H42">
         <v>156</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I42">
+        <v>1308</v>
+      </c>
+      <c r="J42">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2968</v>
       </c>
@@ -1696,8 +2021,14 @@
       <c r="H43">
         <v>5296</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I43">
+        <v>6328</v>
+      </c>
+      <c r="J43">
+        <v>1544</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2380</v>
       </c>
@@ -1722,8 +2053,14 @@
       <c r="H44">
         <v>2188</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I44">
+        <v>3232</v>
+      </c>
+      <c r="J44">
+        <v>5628</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>992</v>
       </c>
@@ -1748,8 +2085,14 @@
       <c r="H45">
         <v>1676</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I45">
+        <v>1428</v>
+      </c>
+      <c r="J45">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>864</v>
       </c>
@@ -1774,8 +2117,14 @@
       <c r="H46">
         <v>1604</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I46">
+        <v>1612</v>
+      </c>
+      <c r="J46">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>704</v>
       </c>
@@ -1800,8 +2149,14 @@
       <c r="H47">
         <v>6804</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I47">
+        <v>2448</v>
+      </c>
+      <c r="J47">
+        <v>6172</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1260</v>
       </c>
@@ -1826,8 +2181,14 @@
       <c r="H48">
         <v>3272</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I48">
+        <v>5668</v>
+      </c>
+      <c r="J48">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1432</v>
       </c>
@@ -1852,8 +2213,14 @@
       <c r="H49">
         <v>3500</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I49">
+        <v>5572</v>
+      </c>
+      <c r="J49">
+        <v>2232</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>644</v>
       </c>
@@ -1878,8 +2245,14 @@
       <c r="H50">
         <v>724</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I50">
+        <v>6696</v>
+      </c>
+      <c r="J50">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1204</v>
       </c>
@@ -1904,8 +2277,14 @@
       <c r="H51">
         <v>1444</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I51">
+        <v>3384</v>
+      </c>
+      <c r="J51">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1332</v>
       </c>
@@ -1930,8 +2309,14 @@
       <c r="H52">
         <v>636</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I52">
+        <v>2836</v>
+      </c>
+      <c r="J52">
+        <v>6536</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1352</v>
       </c>
@@ -1956,8 +2341,14 @@
       <c r="H53">
         <v>3144</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I53">
+        <v>6484</v>
+      </c>
+      <c r="J53">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1212</v>
       </c>
@@ -1982,8 +2373,14 @@
       <c r="H54">
         <v>1988</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I54">
+        <v>3108</v>
+      </c>
+      <c r="J54">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1076</v>
       </c>
@@ -2008,8 +2405,14 @@
       <c r="H55">
         <v>1644</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I55">
+        <v>3236</v>
+      </c>
+      <c r="J55">
+        <v>3516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1076</v>
       </c>
@@ -2034,8 +2437,14 @@
       <c r="H56">
         <v>2760</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I56">
+        <v>3200</v>
+      </c>
+      <c r="J56">
+        <v>1720</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1440</v>
       </c>
@@ -2060,8 +2469,14 @@
       <c r="H57">
         <v>3456</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I57">
+        <v>3196</v>
+      </c>
+      <c r="J57">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>644</v>
       </c>
@@ -2086,8 +2501,14 @@
       <c r="H58">
         <v>1300</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I58">
+        <v>764</v>
+      </c>
+      <c r="J58">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>912</v>
       </c>
@@ -2112,8 +2533,14 @@
       <c r="H59">
         <v>3000</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I59">
+        <v>1460</v>
+      </c>
+      <c r="J59">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>936</v>
       </c>
@@ -2138,8 +2565,14 @@
       <c r="H60">
         <v>708</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I60">
+        <v>5304</v>
+      </c>
+      <c r="J60">
+        <v>5172</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1284</v>
       </c>
@@ -2164,8 +2597,14 @@
       <c r="H61">
         <v>2912</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I61">
+        <v>6756</v>
+      </c>
+      <c r="J61">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>640</v>
       </c>
@@ -2190,8 +2629,14 @@
       <c r="H62">
         <v>3132</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I62">
+        <v>11912</v>
+      </c>
+      <c r="J62">
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>656</v>
       </c>
@@ -2216,8 +2661,14 @@
       <c r="H63">
         <v>2208</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I63">
+        <v>2988</v>
+      </c>
+      <c r="J63">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2004</v>
       </c>
@@ -2242,8 +2693,14 @@
       <c r="H64">
         <v>2812</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I64">
+        <v>3008</v>
+      </c>
+      <c r="J64">
+        <v>2316</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>912</v>
       </c>
@@ -2268,8 +2725,14 @@
       <c r="H65">
         <v>6184</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I65">
+        <v>5396</v>
+      </c>
+      <c r="J65">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>708</v>
       </c>
@@ -2294,8 +2757,14 @@
       <c r="H66">
         <v>2100</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I66">
+        <v>4528</v>
+      </c>
+      <c r="J66">
+        <v>3508</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>456</v>
       </c>
@@ -2320,8 +2789,14 @@
       <c r="H67">
         <v>4248</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I67">
+        <v>3100</v>
+      </c>
+      <c r="J67">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1140</v>
       </c>
@@ -2346,8 +2821,14 @@
       <c r="H68">
         <v>1084</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I68">
+        <v>3248</v>
+      </c>
+      <c r="J68">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -2372,8 +2853,14 @@
       <c r="H69">
         <v>3124</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I69">
+        <v>3256</v>
+      </c>
+      <c r="J69">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1044</v>
       </c>
@@ -2398,8 +2885,14 @@
       <c r="H70">
         <v>3216</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I70">
+        <v>2500</v>
+      </c>
+      <c r="J70">
+        <v>5424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>632</v>
       </c>
@@ -2424,8 +2917,14 @@
       <c r="H71">
         <v>4704</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I71">
+        <v>6464</v>
+      </c>
+      <c r="J71">
+        <v>1520</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1232</v>
       </c>
@@ -2450,8 +2949,14 @@
       <c r="H72">
         <v>1772</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I72">
+        <v>7080</v>
+      </c>
+      <c r="J72">
+        <v>7232</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1400</v>
       </c>
@@ -2476,8 +2981,14 @@
       <c r="H73">
         <v>1460</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I73">
+        <v>2344</v>
+      </c>
+      <c r="J73">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2344</v>
       </c>
@@ -2502,8 +3013,14 @@
       <c r="H74">
         <v>2756</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I74">
+        <v>6324</v>
+      </c>
+      <c r="J74">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2376</v>
       </c>
@@ -2528,8 +3045,14 @@
       <c r="H75">
         <v>6280</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I75">
+        <v>5504</v>
+      </c>
+      <c r="J75">
+        <v>2388</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1444</v>
       </c>
@@ -2554,8 +3077,14 @@
       <c r="H76">
         <v>1624</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I76">
+        <v>1324</v>
+      </c>
+      <c r="J76">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>672</v>
       </c>
@@ -2580,8 +3109,14 @@
       <c r="H77">
         <v>1748</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I77">
+        <v>5356</v>
+      </c>
+      <c r="J77">
+        <v>5420</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1416</v>
       </c>
@@ -2606,8 +3141,14 @@
       <c r="H78">
         <v>516</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I78">
+        <v>3096</v>
+      </c>
+      <c r="J78">
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1540</v>
       </c>
@@ -2632,8 +3173,14 @@
       <c r="H79">
         <v>2576</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I79">
+        <v>3160</v>
+      </c>
+      <c r="J79">
+        <v>2808</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1460</v>
       </c>
@@ -2658,8 +3205,14 @@
       <c r="H80">
         <v>1456</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I80">
+        <v>3064</v>
+      </c>
+      <c r="J80">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>792</v>
       </c>
@@ -2684,8 +3237,14 @@
       <c r="H81">
         <v>1108</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I81">
+        <v>6136</v>
+      </c>
+      <c r="J81">
+        <v>7248</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1160</v>
       </c>
@@ -2710,8 +3269,14 @@
       <c r="H82">
         <v>2692</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I82">
+        <v>3764</v>
+      </c>
+      <c r="J82">
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1296</v>
       </c>
@@ -2736,8 +3301,14 @@
       <c r="H83">
         <v>1360</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I83">
+        <v>5176</v>
+      </c>
+      <c r="J83">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1016</v>
       </c>
@@ -2762,8 +3333,14 @@
       <c r="H84">
         <v>1360</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I84">
+        <v>3144</v>
+      </c>
+      <c r="J84">
+        <v>6908</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>716</v>
       </c>
@@ -2788,8 +3365,14 @@
       <c r="H85">
         <v>3120</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I85">
+        <v>6884</v>
+      </c>
+      <c r="J85">
+        <v>7048</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1264</v>
       </c>
@@ -2814,8 +3397,14 @@
       <c r="H86">
         <v>3248</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I86">
+        <v>10636</v>
+      </c>
+      <c r="J86">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1756</v>
       </c>
@@ -2840,8 +3429,14 @@
       <c r="H87">
         <v>5544</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I87">
+        <v>1016</v>
+      </c>
+      <c r="J87">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>620</v>
       </c>
@@ -2866,8 +3461,14 @@
       <c r="H88">
         <v>3032</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I88">
+        <v>7096</v>
+      </c>
+      <c r="J88">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1036</v>
       </c>
@@ -2892,8 +3493,14 @@
       <c r="H89">
         <v>6656</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I89">
+        <v>3240</v>
+      </c>
+      <c r="J89">
+        <v>6056</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>960</v>
       </c>
@@ -2918,8 +3525,14 @@
       <c r="H90">
         <v>1700</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I90">
+        <v>2472</v>
+      </c>
+      <c r="J90">
+        <v>4532</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1232</v>
       </c>
@@ -2944,8 +3557,14 @@
       <c r="H91">
         <v>1548</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I91">
+        <v>5120</v>
+      </c>
+      <c r="J91">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>340</v>
       </c>
@@ -2970,8 +3589,14 @@
       <c r="H92">
         <v>896</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I92">
+        <v>3468</v>
+      </c>
+      <c r="J92">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>704</v>
       </c>
@@ -2996,8 +3621,14 @@
       <c r="H93">
         <v>888</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I93">
+        <v>3520</v>
+      </c>
+      <c r="J93">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>680</v>
       </c>
@@ -3022,8 +3653,14 @@
       <c r="H94">
         <v>2620</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I94">
+        <v>7332</v>
+      </c>
+      <c r="J94">
+        <v>2492</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>780</v>
       </c>
@@ -3048,8 +3685,14 @@
       <c r="H95">
         <v>2936</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I95">
+        <v>1472</v>
+      </c>
+      <c r="J95">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1380</v>
       </c>
@@ -3074,8 +3717,14 @@
       <c r="H96">
         <v>5080</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I96">
+        <v>3144</v>
+      </c>
+      <c r="J96">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1428</v>
       </c>
@@ -3100,8 +3749,14 @@
       <c r="H97">
         <v>1212</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I97">
+        <v>5660</v>
+      </c>
+      <c r="J97">
+        <v>5204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1164</v>
       </c>
@@ -3126,8 +3781,14 @@
       <c r="H98">
         <v>2996</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I98">
+        <v>6396</v>
+      </c>
+      <c r="J98">
+        <v>1524</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>644</v>
       </c>
@@ -3152,8 +3813,14 @@
       <c r="H99">
         <v>2732</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I99">
+        <v>6928</v>
+      </c>
+      <c r="J99">
+        <v>6632</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1088</v>
       </c>
@@ -3178,8 +3845,14 @@
       <c r="H100">
         <v>2752</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I100">
+        <v>6448</v>
+      </c>
+      <c r="J100">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2156</v>
       </c>
@@ -3203,6 +3876,12 @@
       </c>
       <c r="H101">
         <v>3028</v>
+      </c>
+      <c r="I101">
+        <v>3520</v>
+      </c>
+      <c r="J101">
+        <v>1924</v>
       </c>
     </row>
   </sheetData>
@@ -3212,44 +3891,54 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54DEED1-2593-E04C-A7FC-E90A52BD3EED}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
       </c>
       <c r="I1" t="s">
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="K1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <f>MIN(raw_scores!A2:'raw_scores'!A101)</f>
@@ -3285,12 +3974,16 @@
       </c>
       <c r="J2">
         <f>MIN(raw_scores!I2:'raw_scores'!I101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <v>764</v>
+      </c>
+      <c r="K2">
+        <f>MIN(raw_scores!J2:'raw_scores'!J101)</f>
+        <v>304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <f>MAX(raw_scores!A2:'raw_scores'!A101)</f>
@@ -3326,12 +4019,16 @@
       </c>
       <c r="J3">
         <f>MAX(raw_scores!I2:'raw_scores'!I101)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>11912</v>
+      </c>
+      <c r="K3">
+        <f>MAX(raw_scores!J2:'raw_scores'!J101)</f>
+        <v>7312</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4">
         <f>AVERAGE(raw_scores!A2:'raw_scores'!A101)</f>
@@ -3365,14 +4062,18 @@
         <f>AVERAGE(raw_scores!H2:'raw_scores'!H101)</f>
         <v>2592</v>
       </c>
-      <c r="J4" t="e">
+      <c r="J4">
         <f>AVERAGE(raw_scores!I2:'raw_scores'!I101)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>4312.84</v>
+      </c>
+      <c r="K4">
+        <f>AVERAGE(raw_scores!J2:'raw_scores'!J101)</f>
+        <v>3675.16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5">
         <f>MEDIAN(raw_scores!A2:'raw_scores'!A101)</f>
@@ -3406,14 +4107,18 @@
         <f>MEDIAN(raw_scores!H2:'raw_scores'!H101)</f>
         <v>2490</v>
       </c>
-      <c r="J5" t="e">
+      <c r="J5">
         <f>MEDIAN(raw_scores!I2:'raw_scores'!I101)</f>
-        <v>#NUM!</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+        <v>3568</v>
+      </c>
+      <c r="K5">
+        <f>MEDIAN(raw_scores!J2:'raw_scores'!J101)</f>
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <f>STDEV(raw_scores!A2:'raw_scores'!A101)</f>
@@ -3447,14 +4152,18 @@
         <f>STDEV(raw_scores!H2:'raw_scores'!H101)</f>
         <v>1425.2993731249246</v>
       </c>
-      <c r="J6" t="e">
+      <c r="J6">
         <f>STDEV(raw_scores!I2:'raw_scores'!I101)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>2323.3128068307633</v>
+      </c>
+      <c r="K6">
+        <f>STDEV(raw_scores!J2:'raw_scores'!J101)</f>
+        <v>1960.9206079561384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <f>hyper!B2/hyper!B3</f>
@@ -3488,9 +4197,13 @@
         <f>hyper!I2/hyper!I3</f>
         <v>66.98</v>
       </c>
-      <c r="J7" t="e">
+      <c r="J7">
         <f>hyper!J2/hyper!J3</f>
-        <v>#DIV/0!</v>
+        <v>129.47999999999999</v>
+      </c>
+      <c r="K7">
+        <f>hyper!K2/hyper!K3</f>
+        <v>152.13999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/Final Project/simulation.xlsx
+++ b/Final Project/simulation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgy/Downloads/AI_Proj/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3E19FB9-4114-974E-AF34-FF10980C2C38}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD62277E-4F3B-0C40-858A-CA2A8B862194}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{CB718146-76ED-6B4B-ABE4-D20C3144D41F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{CB718146-76ED-6B4B-ABE4-D20C3144D41F}"/>
   </bookViews>
   <sheets>
     <sheet name="hyper" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>tme in sec</t>
   </si>
@@ -477,7 +477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4803BA00-13C4-D94B-9AED-D7BFB6F44303}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -494,9 +494,10 @@
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -530,8 +531,11 @@
       <c r="K1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -565,8 +569,11 @@
       <c r="K2">
         <v>15214</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2">
+        <v>12718</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -600,8 +607,11 @@
       <c r="K3">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -609,7 +619,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -617,7 +627,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -632,11 +642,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496C838B-E0FA-174D-B6C2-D799DE97087C}">
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -650,9 +658,10 @@
     <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -683,8 +692,11 @@
       <c r="J1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1012</v>
       </c>
@@ -715,8 +727,11 @@
       <c r="J2" s="1">
         <v>3140</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="1">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3028</v>
       </c>
@@ -747,8 +762,11 @@
       <c r="J3">
         <v>1388</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3">
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1120</v>
       </c>
@@ -779,8 +797,11 @@
       <c r="J4">
         <v>5396</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1132</v>
       </c>
@@ -811,8 +832,11 @@
       <c r="J5">
         <v>2916</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1460</v>
       </c>
@@ -843,8 +867,11 @@
       <c r="J6">
         <v>3108</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6">
+        <v>3200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1456</v>
       </c>
@@ -875,8 +902,11 @@
       <c r="J7">
         <v>5572</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>616</v>
       </c>
@@ -907,8 +937,11 @@
       <c r="J8">
         <v>3060</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1412</v>
       </c>
@@ -939,8 +972,11 @@
       <c r="J9">
         <v>3108</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K9">
+        <v>5120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1440</v>
       </c>
@@ -971,8 +1007,11 @@
       <c r="J10">
         <v>1336</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K10">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1332</v>
       </c>
@@ -1003,8 +1042,11 @@
       <c r="J11">
         <v>736</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K11">
+        <v>6504</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1120</v>
       </c>
@@ -1035,8 +1077,11 @@
       <c r="J12">
         <v>6424</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K12">
+        <v>7300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>820</v>
       </c>
@@ -1067,8 +1112,11 @@
       <c r="J13">
         <v>5264</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K13">
+        <v>3320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1088</v>
       </c>
@@ -1099,8 +1147,11 @@
       <c r="J14">
         <v>780</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K14">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1276</v>
       </c>
@@ -1131,8 +1182,11 @@
       <c r="J15">
         <v>304</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K15">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>484</v>
       </c>
@@ -1163,8 +1217,11 @@
       <c r="J16">
         <v>3332</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K16">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>732</v>
       </c>
@@ -1195,8 +1252,11 @@
       <c r="J17">
         <v>988</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K17">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1316</v>
       </c>
@@ -1227,8 +1287,11 @@
       <c r="J18">
         <v>5072</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K18">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1132</v>
       </c>
@@ -1259,8 +1322,11 @@
       <c r="J19">
         <v>1428</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K19">
+        <v>6444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>796</v>
       </c>
@@ -1291,8 +1357,11 @@
       <c r="J20">
         <v>3488</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K20">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1312</v>
       </c>
@@ -1323,8 +1392,11 @@
       <c r="J21">
         <v>6028</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K21">
+        <v>3408</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>748</v>
       </c>
@@ -1355,8 +1427,11 @@
       <c r="J22">
         <v>5440</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K22">
+        <v>12220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1332</v>
       </c>
@@ -1387,8 +1462,11 @@
       <c r="J23">
         <v>2672</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K23">
+        <v>7380</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2060</v>
       </c>
@@ -1419,8 +1497,11 @@
       <c r="J24">
         <v>2348</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K24">
+        <v>3632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>896</v>
       </c>
@@ -1451,8 +1532,11 @@
       <c r="J25">
         <v>2388</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K25">
+        <v>2952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>156</v>
       </c>
@@ -1483,8 +1567,11 @@
       <c r="J26">
         <v>1436</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K26">
+        <v>7540</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1448</v>
       </c>
@@ -1515,8 +1602,11 @@
       <c r="J27">
         <v>6204</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K27">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>676</v>
       </c>
@@ -1547,8 +1637,11 @@
       <c r="J28">
         <v>2692</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K28">
+        <v>3020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1120</v>
       </c>
@@ -1579,8 +1672,11 @@
       <c r="J29">
         <v>1372</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K29">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1112</v>
       </c>
@@ -1611,8 +1707,11 @@
       <c r="J30">
         <v>3328</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K30">
+        <v>2340</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>460</v>
       </c>
@@ -1643,8 +1742,11 @@
       <c r="J31">
         <v>1468</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K31">
+        <v>3488</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>684</v>
       </c>
@@ -1675,8 +1777,11 @@
       <c r="J32">
         <v>4944</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K32">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1008</v>
       </c>
@@ -1707,8 +1812,11 @@
       <c r="J33">
         <v>2460</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K33">
+        <v>13828</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>808</v>
       </c>
@@ -1739,8 +1847,11 @@
       <c r="J34">
         <v>5416</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K34">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1052</v>
       </c>
@@ -1771,8 +1882,11 @@
       <c r="J35">
         <v>6284</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K35">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1388</v>
       </c>
@@ -1803,8 +1917,11 @@
       <c r="J36">
         <v>4084</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K36">
+        <v>11080</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>564</v>
       </c>
@@ -1835,8 +1952,11 @@
       <c r="J37">
         <v>7188</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K37">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1080</v>
       </c>
@@ -1867,8 +1987,11 @@
       <c r="J38">
         <v>3196</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K38">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>632</v>
       </c>
@@ -1899,8 +2022,11 @@
       <c r="J39">
         <v>2684</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K39">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>128</v>
       </c>
@@ -1931,8 +2057,11 @@
       <c r="J40">
         <v>5228</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K40">
+        <v>11472</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1228</v>
       </c>
@@ -1963,8 +2092,11 @@
       <c r="J41">
         <v>6864</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K41">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>820</v>
       </c>
@@ -1995,8 +2127,11 @@
       <c r="J42">
         <v>4944</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K42">
+        <v>3056</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2968</v>
       </c>
@@ -2027,8 +2162,11 @@
       <c r="J43">
         <v>1544</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K43">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2380</v>
       </c>
@@ -2059,8 +2197,11 @@
       <c r="J44">
         <v>5628</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K44">
+        <v>5112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>992</v>
       </c>
@@ -2091,8 +2232,11 @@
       <c r="J45">
         <v>1452</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K45">
+        <v>3296</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>864</v>
       </c>
@@ -2123,8 +2267,11 @@
       <c r="J46">
         <v>792</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K46">
+        <v>7404</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>704</v>
       </c>
@@ -2155,8 +2302,11 @@
       <c r="J47">
         <v>6172</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K47">
+        <v>4988</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1260</v>
       </c>
@@ -2187,8 +2337,11 @@
       <c r="J48">
         <v>2936</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K48">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1432</v>
       </c>
@@ -2219,8 +2372,11 @@
       <c r="J49">
         <v>2232</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K49">
+        <v>6584</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>644</v>
       </c>
@@ -2251,8 +2407,11 @@
       <c r="J50">
         <v>4576</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K50">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1204</v>
       </c>
@@ -2283,8 +2442,11 @@
       <c r="J51">
         <v>1180</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K51">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1332</v>
       </c>
@@ -2315,8 +2477,11 @@
       <c r="J52">
         <v>6536</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K52">
+        <v>5460</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1352</v>
       </c>
@@ -2347,8 +2512,11 @@
       <c r="J53">
         <v>1316</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K53">
+        <v>1616</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1212</v>
       </c>
@@ -2379,8 +2547,11 @@
       <c r="J54">
         <v>3196</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K54">
+        <v>2848</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1076</v>
       </c>
@@ -2411,8 +2582,11 @@
       <c r="J55">
         <v>3516</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K55">
+        <v>6632</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1076</v>
       </c>
@@ -2443,8 +2617,11 @@
       <c r="J56">
         <v>1720</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K56">
+        <v>2280</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1440</v>
       </c>
@@ -2475,8 +2652,11 @@
       <c r="J57">
         <v>6016</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K57">
+        <v>10604</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>644</v>
       </c>
@@ -2507,8 +2687,11 @@
       <c r="J58">
         <v>4556</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K58">
+        <v>5164</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>912</v>
       </c>
@@ -2539,8 +2722,11 @@
       <c r="J59">
         <v>1448</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K59">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>936</v>
       </c>
@@ -2571,8 +2757,11 @@
       <c r="J60">
         <v>5172</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K60">
+        <v>5620</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1284</v>
       </c>
@@ -2603,8 +2792,11 @@
       <c r="J61">
         <v>936</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K61">
+        <v>6324</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>640</v>
       </c>
@@ -2635,8 +2827,11 @@
       <c r="J62">
         <v>7312</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K62">
+        <v>4892</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>656</v>
       </c>
@@ -2667,8 +2862,11 @@
       <c r="J63">
         <v>3116</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K63">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2004</v>
       </c>
@@ -2699,8 +2897,11 @@
       <c r="J64">
         <v>2316</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K64">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>912</v>
       </c>
@@ -2731,8 +2932,11 @@
       <c r="J65">
         <v>5380</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K65">
+        <v>7192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>708</v>
       </c>
@@ -2763,8 +2967,11 @@
       <c r="J66">
         <v>3508</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K66">
+        <v>5412</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>456</v>
       </c>
@@ -2795,8 +3002,11 @@
       <c r="J67">
         <v>1680</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K67">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1140</v>
       </c>
@@ -2827,8 +3037,11 @@
       <c r="J68">
         <v>7232</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K68">
+        <v>2516</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -2859,8 +3072,11 @@
       <c r="J69">
         <v>3116</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K69">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1044</v>
       </c>
@@ -2891,8 +3107,11 @@
       <c r="J70">
         <v>5424</v>
       </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K70">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>632</v>
       </c>
@@ -2923,8 +3142,11 @@
       <c r="J71">
         <v>1520</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K71">
+        <v>2064</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1232</v>
       </c>
@@ -2955,8 +3177,11 @@
       <c r="J72">
         <v>7232</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K72">
+        <v>5964</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1400</v>
       </c>
@@ -2987,8 +3212,11 @@
       <c r="J73">
         <v>2372</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K73">
+        <v>5452</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2344</v>
       </c>
@@ -3019,8 +3247,11 @@
       <c r="J74">
         <v>1016</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K74">
+        <v>7084</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2376</v>
       </c>
@@ -3051,8 +3282,11 @@
       <c r="J75">
         <v>2388</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K75">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1444</v>
       </c>
@@ -3083,8 +3317,11 @@
       <c r="J76">
         <v>2596</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K76">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>672</v>
       </c>
@@ -3115,8 +3352,11 @@
       <c r="J77">
         <v>5420</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K77">
+        <v>5632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1416</v>
       </c>
@@ -3147,8 +3387,11 @@
       <c r="J78">
         <v>4620</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K78">
+        <v>6456</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1540</v>
       </c>
@@ -3179,8 +3422,11 @@
       <c r="J79">
         <v>2808</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K79">
+        <v>2348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1460</v>
       </c>
@@ -3211,8 +3457,11 @@
       <c r="J80">
         <v>2748</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K80">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>792</v>
       </c>
@@ -3243,8 +3492,11 @@
       <c r="J81">
         <v>7248</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K81">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1160</v>
       </c>
@@ -3275,8 +3527,11 @@
       <c r="J82">
         <v>4900</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K82">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1296</v>
       </c>
@@ -3307,8 +3562,11 @@
       <c r="J83">
         <v>3160</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K83">
+        <v>7432</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1016</v>
       </c>
@@ -3339,8 +3597,11 @@
       <c r="J84">
         <v>6908</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K84">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>716</v>
       </c>
@@ -3371,8 +3632,11 @@
       <c r="J85">
         <v>7048</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K85">
+        <v>3432</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1264</v>
       </c>
@@ -3403,8 +3667,11 @@
       <c r="J86">
         <v>3132</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K86">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1756</v>
       </c>
@@ -3435,8 +3702,11 @@
       <c r="J87">
         <v>4916</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K87">
+        <v>6368</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>620</v>
       </c>
@@ -3467,8 +3737,11 @@
       <c r="J88">
         <v>2912</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K88">
+        <v>2304</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1036</v>
       </c>
@@ -3499,8 +3772,11 @@
       <c r="J89">
         <v>6056</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K89">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>960</v>
       </c>
@@ -3531,8 +3807,11 @@
       <c r="J90">
         <v>4532</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K90">
+        <v>5492</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1232</v>
       </c>
@@ -3563,8 +3842,11 @@
       <c r="J91">
         <v>844</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K91">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>340</v>
       </c>
@@ -3595,8 +3877,11 @@
       <c r="J92">
         <v>3116</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K92">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>704</v>
       </c>
@@ -3627,8 +3912,11 @@
       <c r="J93">
         <v>5300</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K93">
+        <v>4644</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>680</v>
       </c>
@@ -3659,8 +3947,11 @@
       <c r="J94">
         <v>2492</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K94">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>780</v>
       </c>
@@ -3691,8 +3982,11 @@
       <c r="J95">
         <v>5124</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K95">
+        <v>11804</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1380</v>
       </c>
@@ -3723,8 +4017,11 @@
       <c r="J96">
         <v>4584</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K96">
+        <v>2556</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1428</v>
       </c>
@@ -3755,8 +4052,11 @@
       <c r="J97">
         <v>5204</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K97">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1164</v>
       </c>
@@ -3787,8 +4087,11 @@
       <c r="J98">
         <v>1524</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K98">
+        <v>6512</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>644</v>
       </c>
@@ -3819,8 +4122,11 @@
       <c r="J99">
         <v>6632</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K99">
+        <v>6324</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1088</v>
       </c>
@@ -3851,8 +4157,11 @@
       <c r="J100">
         <v>1724</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K100">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2156</v>
       </c>
@@ -3882,6 +4191,9 @@
       </c>
       <c r="J101">
         <v>1924</v>
+      </c>
+      <c r="K101">
+        <v>3124</v>
       </c>
     </row>
   </sheetData>
@@ -3980,6 +4292,10 @@
         <f>MIN(raw_scores!J2:'raw_scores'!J101)</f>
         <v>304</v>
       </c>
+      <c r="L2">
+        <f>MIN(raw_scores!K2:'raw_scores'!K101)</f>
+        <v>664</v>
+      </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -4025,6 +4341,10 @@
         <f>MAX(raw_scores!J2:'raw_scores'!J101)</f>
         <v>7312</v>
       </c>
+      <c r="L3">
+        <f>MAX(raw_scores!K2:'raw_scores'!K101)</f>
+        <v>13828</v>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -4070,6 +4390,10 @@
         <f>AVERAGE(raw_scores!J2:'raw_scores'!J101)</f>
         <v>3675.16</v>
       </c>
+      <c r="L4">
+        <f>AVERAGE(raw_scores!K2:'raw_scores'!K101)</f>
+        <v>4496.5200000000004</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -4115,6 +4439,10 @@
         <f>MEDIAN(raw_scores!J2:'raw_scores'!J101)</f>
         <v>3150</v>
       </c>
+      <c r="L5">
+        <f>MEDIAN(raw_scores!K2:'raw_scores'!K101)</f>
+        <v>3560</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
@@ -4160,6 +4488,10 @@
         <f>STDEV(raw_scores!J2:'raw_scores'!J101)</f>
         <v>1960.9206079561384</v>
       </c>
+      <c r="L6">
+        <f>STDEV(raw_scores!K2:'raw_scores'!K101)</f>
+        <v>2776.0583730363182</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
@@ -4204,6 +4536,10 @@
       <c r="K7">
         <f>hyper!K2/hyper!K3</f>
         <v>152.13999999999999</v>
+      </c>
+      <c r="L7">
+        <f>hyper!L2/hyper!L3</f>
+        <v>127.18</v>
       </c>
     </row>
   </sheetData>

--- a/Final Project/simulation.xlsx
+++ b/Final Project/simulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgy/Downloads/AI_Proj/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD62277E-4F3B-0C40-858A-CA2A8B862194}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5B3FB2-B219-D04D-B9B1-C984B675556C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{CB718146-76ED-6B4B-ABE4-D20C3144D41F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{CB718146-76ED-6B4B-ABE4-D20C3144D41F}"/>
   </bookViews>
   <sheets>
     <sheet name="hyper" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
   <si>
     <t>tme in sec</t>
   </si>
@@ -111,6 +111,12 @@
   </si>
   <si>
     <t>rollout_depth5</t>
+  </si>
+  <si>
+    <t>rollout_d5e.2</t>
+  </si>
+  <si>
+    <t>rollout_d5e.3</t>
   </si>
 </sst>
 </file>
@@ -477,9 +483,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4803BA00-13C4-D94B-9AED-D7BFB6F44303}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -495,9 +501,10 @@
     <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -534,8 +541,14 @@
       <c r="L1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -572,8 +585,14 @@
       <c r="L2">
         <v>12718</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <v>7825</v>
+      </c>
+      <c r="N2">
+        <v>7437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -610,8 +629,14 @@
       <c r="L3">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -619,7 +644,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -627,7 +652,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -642,9 +667,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496C838B-E0FA-174D-B6C2-D799DE97087C}">
-  <dimension ref="A1:K101"/>
+  <dimension ref="A1:DI101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -659,9 +686,10 @@
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -695,8 +723,14 @@
       <c r="K1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1012</v>
       </c>
@@ -730,8 +764,314 @@
       <c r="K2" s="1">
         <v>5668</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L2" s="1">
+        <v>3472</v>
+      </c>
+      <c r="M2" s="1">
+        <v>3336</v>
+      </c>
+      <c r="N2" s="1">
+        <v>3336</v>
+      </c>
+      <c r="O2">
+        <v>2996</v>
+      </c>
+      <c r="P2">
+        <v>7460</v>
+      </c>
+      <c r="Q2">
+        <v>5144</v>
+      </c>
+      <c r="R2">
+        <v>7092</v>
+      </c>
+      <c r="S2">
+        <v>1328</v>
+      </c>
+      <c r="T2">
+        <v>1556</v>
+      </c>
+      <c r="U2">
+        <v>1536</v>
+      </c>
+      <c r="V2">
+        <v>3160</v>
+      </c>
+      <c r="W2">
+        <v>5284</v>
+      </c>
+      <c r="X2">
+        <v>4584</v>
+      </c>
+      <c r="Y2">
+        <v>2724</v>
+      </c>
+      <c r="Z2">
+        <v>2128</v>
+      </c>
+      <c r="AA2">
+        <v>1508</v>
+      </c>
+      <c r="AB2">
+        <v>5656</v>
+      </c>
+      <c r="AC2">
+        <v>5032</v>
+      </c>
+      <c r="AD2">
+        <v>696</v>
+      </c>
+      <c r="AE2">
+        <v>2812</v>
+      </c>
+      <c r="AF2">
+        <v>5216</v>
+      </c>
+      <c r="AG2">
+        <v>4696</v>
+      </c>
+      <c r="AH2">
+        <v>6008</v>
+      </c>
+      <c r="AI2">
+        <v>3280</v>
+      </c>
+      <c r="AJ2">
+        <v>3012</v>
+      </c>
+      <c r="AK2">
+        <v>2656</v>
+      </c>
+      <c r="AL2">
+        <v>12260</v>
+      </c>
+      <c r="AM2">
+        <v>5384</v>
+      </c>
+      <c r="AN2">
+        <v>6440</v>
+      </c>
+      <c r="AO2">
+        <v>6412</v>
+      </c>
+      <c r="AP2">
+        <v>2976</v>
+      </c>
+      <c r="AQ2">
+        <v>1992</v>
+      </c>
+      <c r="AR2">
+        <v>5384</v>
+      </c>
+      <c r="AS2">
+        <v>7020</v>
+      </c>
+      <c r="AT2">
+        <v>11880</v>
+      </c>
+      <c r="AU2">
+        <v>5436</v>
+      </c>
+      <c r="AV2">
+        <v>6736</v>
+      </c>
+      <c r="AW2">
+        <v>452</v>
+      </c>
+      <c r="AX2">
+        <v>2456</v>
+      </c>
+      <c r="AY2">
+        <v>3416</v>
+      </c>
+      <c r="AZ2">
+        <v>5388</v>
+      </c>
+      <c r="BA2">
+        <v>3300</v>
+      </c>
+      <c r="BB2">
+        <v>3324</v>
+      </c>
+      <c r="BC2">
+        <v>1540</v>
+      </c>
+      <c r="BD2">
+        <v>6368</v>
+      </c>
+      <c r="BE2">
+        <v>684</v>
+      </c>
+      <c r="BF2">
+        <v>2412</v>
+      </c>
+      <c r="BG2">
+        <v>1464</v>
+      </c>
+      <c r="BH2">
+        <v>2872</v>
+      </c>
+      <c r="BI2">
+        <v>3048</v>
+      </c>
+      <c r="BJ2">
+        <v>6016</v>
+      </c>
+      <c r="BK2">
+        <v>3564</v>
+      </c>
+      <c r="BL2">
+        <v>1412</v>
+      </c>
+      <c r="BM2">
+        <v>2756</v>
+      </c>
+      <c r="BN2">
+        <v>2284</v>
+      </c>
+      <c r="BO2">
+        <v>4344</v>
+      </c>
+      <c r="BP2">
+        <v>7180</v>
+      </c>
+      <c r="BQ2">
+        <v>2488</v>
+      </c>
+      <c r="BR2">
+        <v>6044</v>
+      </c>
+      <c r="BS2">
+        <v>5728</v>
+      </c>
+      <c r="BT2">
+        <v>2816</v>
+      </c>
+      <c r="BU2">
+        <v>1304</v>
+      </c>
+      <c r="BV2">
+        <v>2520</v>
+      </c>
+      <c r="BW2">
+        <v>2732</v>
+      </c>
+      <c r="BX2">
+        <v>2472</v>
+      </c>
+      <c r="BY2">
+        <v>1472</v>
+      </c>
+      <c r="BZ2">
+        <v>744</v>
+      </c>
+      <c r="CA2">
+        <v>6676</v>
+      </c>
+      <c r="CB2">
+        <v>6420</v>
+      </c>
+      <c r="CC2">
+        <v>1056</v>
+      </c>
+      <c r="CD2">
+        <v>2596</v>
+      </c>
+      <c r="CE2">
+        <v>6368</v>
+      </c>
+      <c r="CF2">
+        <v>1332</v>
+      </c>
+      <c r="CG2">
+        <v>1436</v>
+      </c>
+      <c r="CH2">
+        <v>2836</v>
+      </c>
+      <c r="CI2">
+        <v>6968</v>
+      </c>
+      <c r="CJ2">
+        <v>3284</v>
+      </c>
+      <c r="CK2">
+        <v>5496</v>
+      </c>
+      <c r="CL2">
+        <v>1448</v>
+      </c>
+      <c r="CM2">
+        <v>1012</v>
+      </c>
+      <c r="CN2">
+        <v>10536</v>
+      </c>
+      <c r="CO2">
+        <v>2728</v>
+      </c>
+      <c r="CP2">
+        <v>3132</v>
+      </c>
+      <c r="CQ2">
+        <v>7120</v>
+      </c>
+      <c r="CR2">
+        <v>4660</v>
+      </c>
+      <c r="CS2">
+        <v>3260</v>
+      </c>
+      <c r="CT2">
+        <v>2408</v>
+      </c>
+      <c r="CU2">
+        <v>856</v>
+      </c>
+      <c r="CV2">
+        <v>1620</v>
+      </c>
+      <c r="CW2">
+        <v>3048</v>
+      </c>
+      <c r="CX2">
+        <v>6300</v>
+      </c>
+      <c r="CY2">
+        <v>600</v>
+      </c>
+      <c r="CZ2">
+        <v>6336</v>
+      </c>
+      <c r="DA2">
+        <v>4724</v>
+      </c>
+      <c r="DB2">
+        <v>2540</v>
+      </c>
+      <c r="DC2">
+        <v>2872</v>
+      </c>
+      <c r="DD2">
+        <v>3004</v>
+      </c>
+      <c r="DE2">
+        <v>4888</v>
+      </c>
+      <c r="DF2">
+        <v>7240</v>
+      </c>
+      <c r="DG2">
+        <v>1300</v>
+      </c>
+      <c r="DH2">
+        <v>5380</v>
+      </c>
+      <c r="DI2">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="3" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3028</v>
       </c>
@@ -765,8 +1105,14 @@
       <c r="K3">
         <v>7192</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L3">
+        <v>3052</v>
+      </c>
+      <c r="M3">
+        <v>2996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1120</v>
       </c>
@@ -800,8 +1146,14 @@
       <c r="K4">
         <v>3152</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L4">
+        <v>1140</v>
+      </c>
+      <c r="M4">
+        <v>7460</v>
+      </c>
+    </row>
+    <row r="5" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1132</v>
       </c>
@@ -835,8 +1187,14 @@
       <c r="K5">
         <v>6300</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L5">
+        <v>1112</v>
+      </c>
+      <c r="M5">
+        <v>5144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1460</v>
       </c>
@@ -870,8 +1228,14 @@
       <c r="K6">
         <v>3200</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L6">
+        <v>3052</v>
+      </c>
+      <c r="M6">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1456</v>
       </c>
@@ -905,8 +1269,14 @@
       <c r="K7">
         <v>5640</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7">
+        <v>11200</v>
+      </c>
+      <c r="M7">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>616</v>
       </c>
@@ -940,8 +1310,14 @@
       <c r="K8">
         <v>1384</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8">
+        <v>5352</v>
+      </c>
+      <c r="M8">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1412</v>
       </c>
@@ -975,8 +1351,14 @@
       <c r="K9">
         <v>5120</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9">
+        <v>7864</v>
+      </c>
+      <c r="M9">
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="10" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1440</v>
       </c>
@@ -1010,8 +1392,14 @@
       <c r="K10">
         <v>3712</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10">
+        <v>5552</v>
+      </c>
+      <c r="M10">
+        <v>3160</v>
+      </c>
+    </row>
+    <row r="11" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1332</v>
       </c>
@@ -1045,8 +1433,14 @@
       <c r="K11">
         <v>6504</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11">
+        <v>6860</v>
+      </c>
+      <c r="M11">
+        <v>5284</v>
+      </c>
+    </row>
+    <row r="12" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1120</v>
       </c>
@@ -1080,8 +1474,14 @@
       <c r="K12">
         <v>7300</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12">
+        <v>6160</v>
+      </c>
+      <c r="M12">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="13" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>820</v>
       </c>
@@ -1115,8 +1515,14 @@
       <c r="K13">
         <v>3320</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13">
+        <v>5940</v>
+      </c>
+      <c r="M13">
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="14" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1088</v>
       </c>
@@ -1150,8 +1556,14 @@
       <c r="K14">
         <v>1316</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14">
+        <v>3540</v>
+      </c>
+      <c r="M14">
+        <v>2128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1276</v>
       </c>
@@ -1185,8 +1597,14 @@
       <c r="K15">
         <v>1020</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15">
+        <v>2900</v>
+      </c>
+      <c r="M15">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>484</v>
       </c>
@@ -1220,8 +1638,14 @@
       <c r="K16">
         <v>3164</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L16">
+        <v>7336</v>
+      </c>
+      <c r="M16">
+        <v>5656</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>732</v>
       </c>
@@ -1255,8 +1679,14 @@
       <c r="K17">
         <v>2384</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L17">
+        <v>2928</v>
+      </c>
+      <c r="M17">
+        <v>5032</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1316</v>
       </c>
@@ -1290,8 +1720,14 @@
       <c r="K18">
         <v>1188</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L18">
+        <v>2328</v>
+      </c>
+      <c r="M18">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1132</v>
       </c>
@@ -1325,8 +1761,14 @@
       <c r="K19">
         <v>6444</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L19">
+        <v>2748</v>
+      </c>
+      <c r="M19">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>796</v>
       </c>
@@ -1360,8 +1802,14 @@
       <c r="K20">
         <v>2292</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L20">
+        <v>7948</v>
+      </c>
+      <c r="M20">
+        <v>5216</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1312</v>
       </c>
@@ -1395,8 +1843,14 @@
       <c r="K21">
         <v>3408</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L21">
+        <v>1412</v>
+      </c>
+      <c r="M21">
+        <v>4696</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>748</v>
       </c>
@@ -1430,8 +1884,14 @@
       <c r="K22">
         <v>12220</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L22">
+        <v>4828</v>
+      </c>
+      <c r="M22">
+        <v>6008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1332</v>
       </c>
@@ -1465,8 +1925,14 @@
       <c r="K23">
         <v>7380</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L23">
+        <v>6788</v>
+      </c>
+      <c r="M23">
+        <v>3280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2060</v>
       </c>
@@ -1500,8 +1966,14 @@
       <c r="K24">
         <v>3632</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L24">
+        <v>2964</v>
+      </c>
+      <c r="M24">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>896</v>
       </c>
@@ -1535,8 +2007,14 @@
       <c r="K25">
         <v>2952</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L25">
+        <v>11184</v>
+      </c>
+      <c r="M25">
+        <v>2656</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>156</v>
       </c>
@@ -1570,8 +2048,14 @@
       <c r="K26">
         <v>7540</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L26">
+        <v>11020</v>
+      </c>
+      <c r="M26">
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1448</v>
       </c>
@@ -1605,8 +2089,14 @@
       <c r="K27">
         <v>1428</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L27">
+        <v>3340</v>
+      </c>
+      <c r="M27">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>676</v>
       </c>
@@ -1640,8 +2130,14 @@
       <c r="K28">
         <v>3020</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L28">
+        <v>3080</v>
+      </c>
+      <c r="M28">
+        <v>6440</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1120</v>
       </c>
@@ -1675,8 +2171,14 @@
       <c r="K29">
         <v>2028</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L29">
+        <v>2876</v>
+      </c>
+      <c r="M29">
+        <v>6412</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1112</v>
       </c>
@@ -1710,8 +2212,14 @@
       <c r="K30">
         <v>2340</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <v>6388</v>
+      </c>
+      <c r="M30">
+        <v>2976</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>460</v>
       </c>
@@ -1745,8 +2253,14 @@
       <c r="K31">
         <v>3488</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L31">
+        <v>1424</v>
+      </c>
+      <c r="M31">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>684</v>
       </c>
@@ -1780,8 +2294,14 @@
       <c r="K32">
         <v>3112</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L32">
+        <v>7168</v>
+      </c>
+      <c r="M32">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1008</v>
       </c>
@@ -1815,8 +2335,14 @@
       <c r="K33">
         <v>13828</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L33">
+        <v>676</v>
+      </c>
+      <c r="M33">
+        <v>7020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>808</v>
       </c>
@@ -1850,8 +2376,14 @@
       <c r="K34">
         <v>7092</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L34">
+        <v>7156</v>
+      </c>
+      <c r="M34">
+        <v>11880</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1052</v>
       </c>
@@ -1885,8 +2417,14 @@
       <c r="K35">
         <v>6604</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L35">
+        <v>2612</v>
+      </c>
+      <c r="M35">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1388</v>
       </c>
@@ -1920,8 +2458,14 @@
       <c r="K36">
         <v>11080</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L36">
+        <v>2660</v>
+      </c>
+      <c r="M36">
+        <v>6736</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>564</v>
       </c>
@@ -1955,8 +2499,14 @@
       <c r="K37">
         <v>1704</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L37">
+        <v>6116</v>
+      </c>
+      <c r="M37">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1080</v>
       </c>
@@ -1990,8 +2540,14 @@
       <c r="K38">
         <v>1384</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L38">
+        <v>1396</v>
+      </c>
+      <c r="M38">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>632</v>
       </c>
@@ -2025,8 +2581,14 @@
       <c r="K39">
         <v>3136</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L39">
+        <v>7396</v>
+      </c>
+      <c r="M39">
+        <v>3416</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>128</v>
       </c>
@@ -2060,8 +2622,14 @@
       <c r="K40">
         <v>11472</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L40">
+        <v>6304</v>
+      </c>
+      <c r="M40">
+        <v>5388</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1228</v>
       </c>
@@ -2095,8 +2663,14 @@
       <c r="K41">
         <v>3232</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L41">
+        <v>5420</v>
+      </c>
+      <c r="M41">
+        <v>3300</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>820</v>
       </c>
@@ -2130,8 +2704,14 @@
       <c r="K42">
         <v>3056</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L42">
+        <v>6868</v>
+      </c>
+      <c r="M42">
+        <v>3324</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2968</v>
       </c>
@@ -2165,8 +2745,14 @@
       <c r="K43">
         <v>1308</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L43">
+        <v>5444</v>
+      </c>
+      <c r="M43">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2380</v>
       </c>
@@ -2200,8 +2786,14 @@
       <c r="K44">
         <v>5112</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L44">
+        <v>7200</v>
+      </c>
+      <c r="M44">
+        <v>6368</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>992</v>
       </c>
@@ -2235,8 +2827,14 @@
       <c r="K45">
         <v>3296</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L45">
+        <v>1444</v>
+      </c>
+      <c r="M45">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>864</v>
       </c>
@@ -2270,8 +2868,14 @@
       <c r="K46">
         <v>7404</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L46">
+        <v>2124</v>
+      </c>
+      <c r="M46">
+        <v>2412</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>704</v>
       </c>
@@ -2305,8 +2909,14 @@
       <c r="K47">
         <v>4988</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L47">
+        <v>3128</v>
+      </c>
+      <c r="M47">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1260</v>
       </c>
@@ -2340,8 +2950,14 @@
       <c r="K48">
         <v>6332</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L48">
+        <v>1380</v>
+      </c>
+      <c r="M48">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1432</v>
       </c>
@@ -2375,8 +2991,14 @@
       <c r="K49">
         <v>6584</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L49">
+        <v>3260</v>
+      </c>
+      <c r="M49">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>644</v>
       </c>
@@ -2410,8 +3032,14 @@
       <c r="K50">
         <v>1944</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L50">
+        <v>10108</v>
+      </c>
+      <c r="M50">
+        <v>6016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1204</v>
       </c>
@@ -2445,8 +3073,14 @@
       <c r="K51">
         <v>5284</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L51">
+        <v>3116</v>
+      </c>
+      <c r="M51">
+        <v>3564</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1332</v>
       </c>
@@ -2480,8 +3114,14 @@
       <c r="K52">
         <v>5460</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L52">
+        <v>2792</v>
+      </c>
+      <c r="M52">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1352</v>
       </c>
@@ -2515,8 +3155,14 @@
       <c r="K53">
         <v>1616</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L53">
+        <v>3488</v>
+      </c>
+      <c r="M53">
+        <v>2756</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1212</v>
       </c>
@@ -2550,8 +3196,14 @@
       <c r="K54">
         <v>2848</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L54">
+        <v>1956</v>
+      </c>
+      <c r="M54">
+        <v>2284</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1076</v>
       </c>
@@ -2585,8 +3237,14 @@
       <c r="K55">
         <v>6632</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L55">
+        <v>1088</v>
+      </c>
+      <c r="M55">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1076</v>
       </c>
@@ -2620,8 +3278,14 @@
       <c r="K56">
         <v>2280</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L56">
+        <v>7388</v>
+      </c>
+      <c r="M56">
+        <v>7180</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1440</v>
       </c>
@@ -2655,8 +3319,14 @@
       <c r="K57">
         <v>10604</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L57">
+        <v>6876</v>
+      </c>
+      <c r="M57">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>644</v>
       </c>
@@ -2690,8 +3360,14 @@
       <c r="K58">
         <v>5164</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L58">
+        <v>5204</v>
+      </c>
+      <c r="M58">
+        <v>6044</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>912</v>
       </c>
@@ -2725,8 +3401,14 @@
       <c r="K59">
         <v>3112</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L59">
+        <v>6896</v>
+      </c>
+      <c r="M59">
+        <v>5728</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>936</v>
       </c>
@@ -2760,8 +3442,14 @@
       <c r="K60">
         <v>5620</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L60">
+        <v>3452</v>
+      </c>
+      <c r="M60">
+        <v>2816</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1284</v>
       </c>
@@ -2795,8 +3483,14 @@
       <c r="K61">
         <v>6324</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L61">
+        <v>1624</v>
+      </c>
+      <c r="M61">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>640</v>
       </c>
@@ -2830,8 +3524,14 @@
       <c r="K62">
         <v>4892</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L62">
+        <v>2800</v>
+      </c>
+      <c r="M62">
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>656</v>
       </c>
@@ -2865,8 +3565,14 @@
       <c r="K63">
         <v>5396</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L63">
+        <v>3304</v>
+      </c>
+      <c r="M63">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2004</v>
       </c>
@@ -2900,8 +3606,14 @@
       <c r="K64">
         <v>3128</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L64">
+        <v>2648</v>
+      </c>
+      <c r="M64">
+        <v>2472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>912</v>
       </c>
@@ -2935,8 +3647,14 @@
       <c r="K65">
         <v>7192</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L65">
+        <v>5532</v>
+      </c>
+      <c r="M65">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>708</v>
       </c>
@@ -2970,8 +3688,14 @@
       <c r="K66">
         <v>5412</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L66">
+        <v>2020</v>
+      </c>
+      <c r="M66">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>456</v>
       </c>
@@ -3005,8 +3729,14 @@
       <c r="K67">
         <v>664</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L67">
+        <v>6876</v>
+      </c>
+      <c r="M67">
+        <v>6676</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1140</v>
       </c>
@@ -3040,8 +3770,14 @@
       <c r="K68">
         <v>2516</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L68">
+        <v>3464</v>
+      </c>
+      <c r="M68">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -3075,8 +3811,14 @@
       <c r="K69">
         <v>1372</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L69">
+        <v>7292</v>
+      </c>
+      <c r="M69">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1044</v>
       </c>
@@ -3110,8 +3852,14 @@
       <c r="K70">
         <v>1420</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L70">
+        <v>7916</v>
+      </c>
+      <c r="M70">
+        <v>2596</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>632</v>
       </c>
@@ -3145,8 +3893,14 @@
       <c r="K71">
         <v>2064</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L71">
+        <v>7408</v>
+      </c>
+      <c r="M71">
+        <v>6368</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1232</v>
       </c>
@@ -3180,8 +3934,14 @@
       <c r="K72">
         <v>5964</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L72">
+        <v>2272</v>
+      </c>
+      <c r="M72">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1400</v>
       </c>
@@ -3215,8 +3975,14 @@
       <c r="K73">
         <v>5452</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L73">
+        <v>4480</v>
+      </c>
+      <c r="M73">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2344</v>
       </c>
@@ -3250,8 +4016,14 @@
       <c r="K74">
         <v>7084</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L74">
+        <v>2964</v>
+      </c>
+      <c r="M74">
+        <v>2836</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2376</v>
       </c>
@@ -3285,8 +4057,14 @@
       <c r="K75">
         <v>2384</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L75">
+        <v>2672</v>
+      </c>
+      <c r="M75">
+        <v>6968</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1444</v>
       </c>
@@ -3320,8 +4098,14 @@
       <c r="K76">
         <v>6120</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L76">
+        <v>6776</v>
+      </c>
+      <c r="M76">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>672</v>
       </c>
@@ -3355,8 +4139,14 @@
       <c r="K77">
         <v>5632</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L77">
+        <v>6816</v>
+      </c>
+      <c r="M77">
+        <v>5496</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1416</v>
       </c>
@@ -3390,8 +4180,14 @@
       <c r="K78">
         <v>6456</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L78">
+        <v>5792</v>
+      </c>
+      <c r="M78">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1540</v>
       </c>
@@ -3425,8 +4221,14 @@
       <c r="K79">
         <v>2348</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L79">
+        <v>2900</v>
+      </c>
+      <c r="M79">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1460</v>
       </c>
@@ -3460,8 +4262,14 @@
       <c r="K80">
         <v>3160</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L80">
+        <v>4620</v>
+      </c>
+      <c r="M80">
+        <v>10536</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>792</v>
       </c>
@@ -3495,8 +4303,14 @@
       <c r="K81">
         <v>6736</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L81">
+        <v>10476</v>
+      </c>
+      <c r="M81">
+        <v>2728</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1160</v>
       </c>
@@ -3530,8 +4344,14 @@
       <c r="K82">
         <v>1088</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L82">
+        <v>3448</v>
+      </c>
+      <c r="M82">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1296</v>
       </c>
@@ -3565,8 +4385,14 @@
       <c r="K83">
         <v>7432</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L83">
+        <v>3308</v>
+      </c>
+      <c r="M83">
+        <v>7120</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1016</v>
       </c>
@@ -3600,8 +4426,14 @@
       <c r="K84">
         <v>2080</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L84">
+        <v>6492</v>
+      </c>
+      <c r="M84">
+        <v>4660</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>716</v>
       </c>
@@ -3635,8 +4467,14 @@
       <c r="K85">
         <v>3432</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L85">
+        <v>1508</v>
+      </c>
+      <c r="M85">
+        <v>3260</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1264</v>
       </c>
@@ -3670,8 +4508,14 @@
       <c r="K86">
         <v>824</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L86">
+        <v>5516</v>
+      </c>
+      <c r="M86">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1756</v>
       </c>
@@ -3705,8 +4549,14 @@
       <c r="K87">
         <v>6368</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L87">
+        <v>1004</v>
+      </c>
+      <c r="M87">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>620</v>
       </c>
@@ -3740,8 +4590,14 @@
       <c r="K88">
         <v>2304</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L88">
+        <v>6460</v>
+      </c>
+      <c r="M88">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1036</v>
       </c>
@@ -3775,8 +4631,14 @@
       <c r="K89">
         <v>672</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L89">
+        <v>1484</v>
+      </c>
+      <c r="M89">
+        <v>3048</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>960</v>
       </c>
@@ -3810,8 +4672,14 @@
       <c r="K90">
         <v>5492</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L90">
+        <v>2760</v>
+      </c>
+      <c r="M90">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1232</v>
       </c>
@@ -3845,8 +4713,14 @@
       <c r="K91">
         <v>1420</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L91">
+        <v>6780</v>
+      </c>
+      <c r="M91">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>340</v>
       </c>
@@ -3880,8 +4754,14 @@
       <c r="K92">
         <v>4660</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L92">
+        <v>1292</v>
+      </c>
+      <c r="M92">
+        <v>6336</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>704</v>
       </c>
@@ -3915,8 +4795,14 @@
       <c r="K93">
         <v>4644</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L93">
+        <v>7568</v>
+      </c>
+      <c r="M93">
+        <v>4724</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>680</v>
       </c>
@@ -3950,8 +4836,14 @@
       <c r="K94">
         <v>2128</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L94">
+        <v>2728</v>
+      </c>
+      <c r="M94">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>780</v>
       </c>
@@ -3985,8 +4877,14 @@
       <c r="K95">
         <v>11804</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L95">
+        <v>6240</v>
+      </c>
+      <c r="M95">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1380</v>
       </c>
@@ -4020,8 +4918,14 @@
       <c r="K96">
         <v>2556</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L96">
+        <v>5452</v>
+      </c>
+      <c r="M96">
+        <v>3004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1428</v>
       </c>
@@ -4055,8 +4959,14 @@
       <c r="K97">
         <v>7040</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L97">
+        <v>6972</v>
+      </c>
+      <c r="M97">
+        <v>4888</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1164</v>
       </c>
@@ -4090,8 +5000,14 @@
       <c r="K98">
         <v>6512</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L98">
+        <v>3012</v>
+      </c>
+      <c r="M98">
+        <v>7240</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>644</v>
       </c>
@@ -4125,8 +5041,14 @@
       <c r="K99">
         <v>6324</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L99">
+        <v>5176</v>
+      </c>
+      <c r="M99">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1088</v>
       </c>
@@ -4160,8 +5082,14 @@
       <c r="K100">
         <v>1008</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L100">
+        <v>3164</v>
+      </c>
+      <c r="M100">
+        <v>5380</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2156</v>
       </c>
@@ -4194,6 +5122,12 @@
       </c>
       <c r="K101">
         <v>3124</v>
+      </c>
+      <c r="L101">
+        <v>452</v>
+      </c>
+      <c r="M101">
+        <v>7092</v>
       </c>
     </row>
   </sheetData>
@@ -4203,17 +5137,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54DEED1-2593-E04C-A7FC-E90A52BD3EED}">
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:N7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -4247,8 +5183,14 @@
       <c r="L1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M1" t="s">
+        <v>28</v>
+      </c>
+      <c r="N1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -4296,8 +5238,16 @@
         <f>MIN(raw_scores!K2:'raw_scores'!K101)</f>
         <v>664</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M2">
+        <f>MIN(raw_scores!L2:'raw_scores'!L101)</f>
+        <v>452</v>
+      </c>
+      <c r="N2">
+        <f>MIN(raw_scores!M2:'raw_scores'!M101)</f>
+        <v>452</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -4345,8 +5295,16 @@
         <f>MAX(raw_scores!K2:'raw_scores'!K101)</f>
         <v>13828</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M3">
+        <f>MAX(raw_scores!L2:'raw_scores'!L101)</f>
+        <v>11200</v>
+      </c>
+      <c r="N3">
+        <f>MAX(raw_scores!M2:'raw_scores'!M101)</f>
+        <v>12260</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -4394,8 +5352,16 @@
         <f>AVERAGE(raw_scores!K2:'raw_scores'!K101)</f>
         <v>4496.5200000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M4">
+        <f>AVERAGE(raw_scores!L2:'raw_scores'!L101)</f>
+        <v>4573.72</v>
+      </c>
+      <c r="N4">
+        <f>AVERAGE(raw_scores!M2:'raw_scores'!M101)</f>
+        <v>3919.92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -4443,8 +5409,16 @@
         <f>MEDIAN(raw_scores!K2:'raw_scores'!K101)</f>
         <v>3560</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M5">
+        <f>MEDIAN(raw_scores!L2:'raw_scores'!L101)</f>
+        <v>3480</v>
+      </c>
+      <c r="N5">
+        <f>MEDIAN(raw_scores!M2:'raw_scores'!M101)</f>
+        <v>3146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -4492,8 +5466,16 @@
         <f>STDEV(raw_scores!K2:'raw_scores'!K101)</f>
         <v>2776.0583730363182</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M6">
+        <f>STDEV(raw_scores!L2:'raw_scores'!L101)</f>
+        <v>2571.8375464349465</v>
+      </c>
+      <c r="N6">
+        <f>STDEV(raw_scores!M2:'raw_scores'!M101)</f>
+        <v>2408.4152116940281</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -4540,6 +5522,14 @@
       <c r="L7">
         <f>hyper!L2/hyper!L3</f>
         <v>127.18</v>
+      </c>
+      <c r="M7">
+        <f>hyper!M2/hyper!M3</f>
+        <v>78.25</v>
+      </c>
+      <c r="N7">
+        <f>hyper!N2/hyper!N3</f>
+        <v>74.37</v>
       </c>
     </row>
   </sheetData>

--- a/Final Project/simulation.xlsx
+++ b/Final Project/simulation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgy/Downloads/AI_Proj/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE5B3FB2-B219-D04D-B9B1-C984B675556C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59BA51E-77F5-9148-A886-9962BAE59FD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{CB718146-76ED-6B4B-ABE4-D20C3144D41F}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
   <si>
     <t>tme in sec</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>rollout_d5e.3</t>
+  </si>
+  <si>
+    <t>rollout_d5e.4</t>
   </si>
 </sst>
 </file>
@@ -483,7 +486,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4803BA00-13C4-D94B-9AED-D7BFB6F44303}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +507,7 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -547,8 +550,11 @@
       <c r="N1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -591,8 +597,11 @@
       <c r="N2">
         <v>7437</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <v>6924</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -635,8 +644,11 @@
       <c r="N3">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -644,7 +656,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -652,7 +664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -667,11 +679,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496C838B-E0FA-174D-B6C2-D799DE97087C}">
-  <dimension ref="A1:DI101"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -686,10 +696,10 @@
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:113" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -729,8 +739,11 @@
       <c r="M1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1012</v>
       </c>
@@ -771,307 +784,10 @@
         <v>3336</v>
       </c>
       <c r="N2" s="1">
-        <v>3336</v>
-      </c>
-      <c r="O2">
-        <v>2996</v>
-      </c>
-      <c r="P2">
-        <v>7460</v>
-      </c>
-      <c r="Q2">
-        <v>5144</v>
-      </c>
-      <c r="R2">
-        <v>7092</v>
-      </c>
-      <c r="S2">
-        <v>1328</v>
-      </c>
-      <c r="T2">
-        <v>1556</v>
-      </c>
-      <c r="U2">
-        <v>1536</v>
-      </c>
-      <c r="V2">
-        <v>3160</v>
-      </c>
-      <c r="W2">
-        <v>5284</v>
-      </c>
-      <c r="X2">
-        <v>4584</v>
-      </c>
-      <c r="Y2">
-        <v>2724</v>
-      </c>
-      <c r="Z2">
-        <v>2128</v>
-      </c>
-      <c r="AA2">
-        <v>1508</v>
-      </c>
-      <c r="AB2">
-        <v>5656</v>
-      </c>
-      <c r="AC2">
-        <v>5032</v>
-      </c>
-      <c r="AD2">
-        <v>696</v>
-      </c>
-      <c r="AE2">
-        <v>2812</v>
-      </c>
-      <c r="AF2">
-        <v>5216</v>
-      </c>
-      <c r="AG2">
-        <v>4696</v>
-      </c>
-      <c r="AH2">
-        <v>6008</v>
-      </c>
-      <c r="AI2">
-        <v>3280</v>
-      </c>
-      <c r="AJ2">
-        <v>3012</v>
-      </c>
-      <c r="AK2">
-        <v>2656</v>
-      </c>
-      <c r="AL2">
-        <v>12260</v>
-      </c>
-      <c r="AM2">
-        <v>5384</v>
-      </c>
-      <c r="AN2">
-        <v>6440</v>
-      </c>
-      <c r="AO2">
-        <v>6412</v>
-      </c>
-      <c r="AP2">
-        <v>2976</v>
-      </c>
-      <c r="AQ2">
-        <v>1992</v>
-      </c>
-      <c r="AR2">
-        <v>5384</v>
-      </c>
-      <c r="AS2">
-        <v>7020</v>
-      </c>
-      <c r="AT2">
-        <v>11880</v>
-      </c>
-      <c r="AU2">
-        <v>5436</v>
-      </c>
-      <c r="AV2">
-        <v>6736</v>
-      </c>
-      <c r="AW2">
-        <v>452</v>
-      </c>
-      <c r="AX2">
-        <v>2456</v>
-      </c>
-      <c r="AY2">
-        <v>3416</v>
-      </c>
-      <c r="AZ2">
-        <v>5388</v>
-      </c>
-      <c r="BA2">
-        <v>3300</v>
-      </c>
-      <c r="BB2">
-        <v>3324</v>
-      </c>
-      <c r="BC2">
-        <v>1540</v>
-      </c>
-      <c r="BD2">
-        <v>6368</v>
-      </c>
-      <c r="BE2">
-        <v>684</v>
-      </c>
-      <c r="BF2">
-        <v>2412</v>
-      </c>
-      <c r="BG2">
-        <v>1464</v>
-      </c>
-      <c r="BH2">
-        <v>2872</v>
-      </c>
-      <c r="BI2">
-        <v>3048</v>
-      </c>
-      <c r="BJ2">
-        <v>6016</v>
-      </c>
-      <c r="BK2">
-        <v>3564</v>
-      </c>
-      <c r="BL2">
-        <v>1412</v>
-      </c>
-      <c r="BM2">
-        <v>2756</v>
-      </c>
-      <c r="BN2">
-        <v>2284</v>
-      </c>
-      <c r="BO2">
-        <v>4344</v>
-      </c>
-      <c r="BP2">
-        <v>7180</v>
-      </c>
-      <c r="BQ2">
-        <v>2488</v>
-      </c>
-      <c r="BR2">
-        <v>6044</v>
-      </c>
-      <c r="BS2">
-        <v>5728</v>
-      </c>
-      <c r="BT2">
-        <v>2816</v>
-      </c>
-      <c r="BU2">
-        <v>1304</v>
-      </c>
-      <c r="BV2">
-        <v>2520</v>
-      </c>
-      <c r="BW2">
-        <v>2732</v>
-      </c>
-      <c r="BX2">
-        <v>2472</v>
-      </c>
-      <c r="BY2">
-        <v>1472</v>
-      </c>
-      <c r="BZ2">
-        <v>744</v>
-      </c>
-      <c r="CA2">
-        <v>6676</v>
-      </c>
-      <c r="CB2">
-        <v>6420</v>
-      </c>
-      <c r="CC2">
-        <v>1056</v>
-      </c>
-      <c r="CD2">
-        <v>2596</v>
-      </c>
-      <c r="CE2">
-        <v>6368</v>
-      </c>
-      <c r="CF2">
-        <v>1332</v>
-      </c>
-      <c r="CG2">
-        <v>1436</v>
-      </c>
-      <c r="CH2">
-        <v>2836</v>
-      </c>
-      <c r="CI2">
-        <v>6968</v>
-      </c>
-      <c r="CJ2">
-        <v>3284</v>
-      </c>
-      <c r="CK2">
-        <v>5496</v>
-      </c>
-      <c r="CL2">
-        <v>1448</v>
-      </c>
-      <c r="CM2">
-        <v>1012</v>
-      </c>
-      <c r="CN2">
-        <v>10536</v>
-      </c>
-      <c r="CO2">
-        <v>2728</v>
-      </c>
-      <c r="CP2">
-        <v>3132</v>
-      </c>
-      <c r="CQ2">
-        <v>7120</v>
-      </c>
-      <c r="CR2">
-        <v>4660</v>
-      </c>
-      <c r="CS2">
-        <v>3260</v>
-      </c>
-      <c r="CT2">
-        <v>2408</v>
-      </c>
-      <c r="CU2">
-        <v>856</v>
-      </c>
-      <c r="CV2">
-        <v>1620</v>
-      </c>
-      <c r="CW2">
-        <v>3048</v>
-      </c>
-      <c r="CX2">
-        <v>6300</v>
-      </c>
-      <c r="CY2">
-        <v>600</v>
-      </c>
-      <c r="CZ2">
-        <v>6336</v>
-      </c>
-      <c r="DA2">
-        <v>4724</v>
-      </c>
-      <c r="DB2">
-        <v>2540</v>
-      </c>
-      <c r="DC2">
-        <v>2872</v>
-      </c>
-      <c r="DD2">
-        <v>3004</v>
-      </c>
-      <c r="DE2">
-        <v>4888</v>
-      </c>
-      <c r="DF2">
-        <v>7240</v>
-      </c>
-      <c r="DG2">
-        <v>1300</v>
-      </c>
-      <c r="DH2">
-        <v>5380</v>
-      </c>
-      <c r="DI2">
-        <v>7092</v>
-      </c>
-    </row>
-    <row r="3" spans="1:113" x14ac:dyDescent="0.2">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3028</v>
       </c>
@@ -1111,8 +827,11 @@
       <c r="M3">
         <v>2996</v>
       </c>
-    </row>
-    <row r="4" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N3">
+        <v>4652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1120</v>
       </c>
@@ -1152,8 +871,11 @@
       <c r="M4">
         <v>7460</v>
       </c>
-    </row>
-    <row r="5" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N4">
+        <v>2796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1132</v>
       </c>
@@ -1193,8 +915,11 @@
       <c r="M5">
         <v>5144</v>
       </c>
-    </row>
-    <row r="6" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N5">
+        <v>6728</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1460</v>
       </c>
@@ -1234,8 +959,11 @@
       <c r="M6">
         <v>7092</v>
       </c>
-    </row>
-    <row r="7" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N6">
+        <v>2704</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1456</v>
       </c>
@@ -1275,8 +1003,11 @@
       <c r="M7">
         <v>1328</v>
       </c>
-    </row>
-    <row r="8" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N7">
+        <v>5356</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>616</v>
       </c>
@@ -1316,8 +1047,11 @@
       <c r="M8">
         <v>1556</v>
       </c>
-    </row>
-    <row r="9" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1412</v>
       </c>
@@ -1357,8 +1091,11 @@
       <c r="M9">
         <v>1536</v>
       </c>
-    </row>
-    <row r="10" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N9">
+        <v>3248</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1440</v>
       </c>
@@ -1398,8 +1135,11 @@
       <c r="M10">
         <v>3160</v>
       </c>
-    </row>
-    <row r="11" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N10">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1332</v>
       </c>
@@ -1439,8 +1179,11 @@
       <c r="M11">
         <v>5284</v>
       </c>
-    </row>
-    <row r="12" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N11">
+        <v>5336</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1120</v>
       </c>
@@ -1480,8 +1223,11 @@
       <c r="M12">
         <v>4584</v>
       </c>
-    </row>
-    <row r="13" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N12">
+        <v>3136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>820</v>
       </c>
@@ -1521,8 +1267,11 @@
       <c r="M13">
         <v>2724</v>
       </c>
-    </row>
-    <row r="14" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N13">
+        <v>4792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1088</v>
       </c>
@@ -1562,8 +1311,11 @@
       <c r="M14">
         <v>2128</v>
       </c>
-    </row>
-    <row r="15" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N14">
+        <v>4784</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1276</v>
       </c>
@@ -1603,8 +1355,11 @@
       <c r="M15">
         <v>1508</v>
       </c>
-    </row>
-    <row r="16" spans="1:113" x14ac:dyDescent="0.2">
+      <c r="N15">
+        <v>2292</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>484</v>
       </c>
@@ -1644,8 +1399,11 @@
       <c r="M16">
         <v>5656</v>
       </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N16">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>732</v>
       </c>
@@ -1685,8 +1443,11 @@
       <c r="M17">
         <v>5032</v>
       </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N17">
+        <v>7176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1316</v>
       </c>
@@ -1726,8 +1487,11 @@
       <c r="M18">
         <v>696</v>
       </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N18">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1132</v>
       </c>
@@ -1767,8 +1531,11 @@
       <c r="M19">
         <v>2812</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N19">
+        <v>10456</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>796</v>
       </c>
@@ -1808,8 +1575,11 @@
       <c r="M20">
         <v>5216</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N20">
+        <v>6708</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1312</v>
       </c>
@@ -1849,8 +1619,11 @@
       <c r="M21">
         <v>4696</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N21">
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>748</v>
       </c>
@@ -1890,8 +1663,11 @@
       <c r="M22">
         <v>6008</v>
       </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N22">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1332</v>
       </c>
@@ -1931,8 +1707,11 @@
       <c r="M23">
         <v>3280</v>
       </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N23">
+        <v>4956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2060</v>
       </c>
@@ -1972,8 +1751,11 @@
       <c r="M24">
         <v>3012</v>
       </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N24">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>896</v>
       </c>
@@ -2013,8 +1795,11 @@
       <c r="M25">
         <v>2656</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N25">
+        <v>7040</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>156</v>
       </c>
@@ -2054,8 +1839,11 @@
       <c r="M26">
         <v>12260</v>
       </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N26">
+        <v>5384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1448</v>
       </c>
@@ -2095,8 +1883,11 @@
       <c r="M27">
         <v>5384</v>
       </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N27">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>676</v>
       </c>
@@ -2136,8 +1927,11 @@
       <c r="M28">
         <v>6440</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N28">
+        <v>2820</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1120</v>
       </c>
@@ -2177,8 +1971,11 @@
       <c r="M29">
         <v>6412</v>
       </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N29">
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1112</v>
       </c>
@@ -2218,8 +2015,11 @@
       <c r="M30">
         <v>2976</v>
       </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N30">
+        <v>2428</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>460</v>
       </c>
@@ -2259,8 +2059,11 @@
       <c r="M31">
         <v>1992</v>
       </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N31">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>684</v>
       </c>
@@ -2300,8 +2103,11 @@
       <c r="M32">
         <v>5384</v>
       </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N32">
+        <v>5652</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1008</v>
       </c>
@@ -2341,8 +2147,11 @@
       <c r="M33">
         <v>7020</v>
       </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N33">
+        <v>6692</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>808</v>
       </c>
@@ -2382,8 +2191,11 @@
       <c r="M34">
         <v>11880</v>
       </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N34">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1052</v>
       </c>
@@ -2423,8 +2235,11 @@
       <c r="M35">
         <v>5436</v>
       </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N35">
+        <v>6828</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1388</v>
       </c>
@@ -2464,8 +2279,11 @@
       <c r="M36">
         <v>6736</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N36">
+        <v>5300</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>564</v>
       </c>
@@ -2505,8 +2323,11 @@
       <c r="M37">
         <v>452</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N37">
+        <v>4756</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1080</v>
       </c>
@@ -2546,8 +2367,11 @@
       <c r="M38">
         <v>2456</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N38">
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>632</v>
       </c>
@@ -2587,8 +2411,11 @@
       <c r="M39">
         <v>3416</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N39">
+        <v>6280</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>128</v>
       </c>
@@ -2628,8 +2455,11 @@
       <c r="M40">
         <v>5388</v>
       </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N40">
+        <v>2356</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1228</v>
       </c>
@@ -2669,8 +2499,11 @@
       <c r="M41">
         <v>3300</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N41">
+        <v>3192</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>820</v>
       </c>
@@ -2710,8 +2543,11 @@
       <c r="M42">
         <v>3324</v>
       </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N42">
+        <v>5100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2968</v>
       </c>
@@ -2751,8 +2587,11 @@
       <c r="M43">
         <v>1540</v>
       </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N43">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2380</v>
       </c>
@@ -2792,8 +2631,11 @@
       <c r="M44">
         <v>6368</v>
       </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N44">
+        <v>3108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>992</v>
       </c>
@@ -2833,8 +2675,11 @@
       <c r="M45">
         <v>684</v>
       </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N45">
+        <v>3224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>864</v>
       </c>
@@ -2874,8 +2719,11 @@
       <c r="M46">
         <v>2412</v>
       </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N46">
+        <v>3084</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>704</v>
       </c>
@@ -2915,8 +2763,11 @@
       <c r="M47">
         <v>1464</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N47">
+        <v>6744</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1260</v>
       </c>
@@ -2956,8 +2807,11 @@
       <c r="M48">
         <v>2872</v>
       </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N48">
+        <v>3088</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1432</v>
       </c>
@@ -2997,8 +2851,11 @@
       <c r="M49">
         <v>3048</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N49">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>644</v>
       </c>
@@ -3038,8 +2895,11 @@
       <c r="M50">
         <v>6016</v>
       </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N50">
+        <v>5724</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1204</v>
       </c>
@@ -3079,8 +2939,11 @@
       <c r="M51">
         <v>3564</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N51">
+        <v>4624</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1332</v>
       </c>
@@ -3120,8 +2983,11 @@
       <c r="M52">
         <v>1412</v>
       </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N52">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1352</v>
       </c>
@@ -3161,8 +3027,11 @@
       <c r="M53">
         <v>2756</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N53">
+        <v>2468</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1212</v>
       </c>
@@ -3202,8 +3071,11 @@
       <c r="M54">
         <v>2284</v>
       </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N54">
+        <v>6868</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1076</v>
       </c>
@@ -3243,8 +3115,11 @@
       <c r="M55">
         <v>4344</v>
       </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N55">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1076</v>
       </c>
@@ -3284,8 +3159,11 @@
       <c r="M56">
         <v>7180</v>
       </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N56">
+        <v>2648</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1440</v>
       </c>
@@ -3325,8 +3203,11 @@
       <c r="M57">
         <v>2488</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N57">
+        <v>2876</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>644</v>
       </c>
@@ -3366,8 +3247,11 @@
       <c r="M58">
         <v>6044</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N58">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>912</v>
       </c>
@@ -3407,8 +3291,11 @@
       <c r="M59">
         <v>5728</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N59">
+        <v>6108</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>936</v>
       </c>
@@ -3448,8 +3335,11 @@
       <c r="M60">
         <v>2816</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N60">
+        <v>8088</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1284</v>
       </c>
@@ -3489,8 +3379,11 @@
       <c r="M61">
         <v>1304</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N61">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>640</v>
       </c>
@@ -3530,8 +3423,11 @@
       <c r="M62">
         <v>2520</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N62">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>656</v>
       </c>
@@ -3571,8 +3467,11 @@
       <c r="M63">
         <v>2732</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N63">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2004</v>
       </c>
@@ -3612,8 +3511,11 @@
       <c r="M64">
         <v>2472</v>
       </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N64">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>912</v>
       </c>
@@ -3653,8 +3555,11 @@
       <c r="M65">
         <v>1472</v>
       </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N65">
+        <v>2936</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>708</v>
       </c>
@@ -3694,8 +3599,11 @@
       <c r="M66">
         <v>744</v>
       </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N66">
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>456</v>
       </c>
@@ -3735,8 +3643,11 @@
       <c r="M67">
         <v>6676</v>
       </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N67">
+        <v>5740</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1140</v>
       </c>
@@ -3776,8 +3687,11 @@
       <c r="M68">
         <v>6420</v>
       </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N68">
+        <v>1540</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -3817,8 +3731,11 @@
       <c r="M69">
         <v>1056</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N69">
+        <v>2908</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1044</v>
       </c>
@@ -3858,8 +3775,11 @@
       <c r="M70">
         <v>2596</v>
       </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N70">
+        <v>3216</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>632</v>
       </c>
@@ -3899,8 +3819,11 @@
       <c r="M71">
         <v>6368</v>
       </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N71">
+        <v>5320</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1232</v>
       </c>
@@ -3940,8 +3863,11 @@
       <c r="M72">
         <v>1332</v>
       </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N72">
+        <v>2536</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1400</v>
       </c>
@@ -3981,8 +3907,11 @@
       <c r="M73">
         <v>1436</v>
       </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N73">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2344</v>
       </c>
@@ -4022,8 +3951,11 @@
       <c r="M74">
         <v>2836</v>
       </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N74">
+        <v>7092</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2376</v>
       </c>
@@ -4063,8 +3995,11 @@
       <c r="M75">
         <v>6968</v>
       </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N75">
+        <v>5564</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1444</v>
       </c>
@@ -4104,8 +4039,11 @@
       <c r="M76">
         <v>3284</v>
       </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N76">
+        <v>5360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>672</v>
       </c>
@@ -4145,8 +4083,11 @@
       <c r="M77">
         <v>5496</v>
       </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N77">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1416</v>
       </c>
@@ -4186,8 +4127,11 @@
       <c r="M78">
         <v>1448</v>
       </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N78">
+        <v>5024</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1540</v>
       </c>
@@ -4227,8 +4171,11 @@
       <c r="M79">
         <v>1012</v>
       </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N79">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1460</v>
       </c>
@@ -4268,8 +4215,11 @@
       <c r="M80">
         <v>10536</v>
       </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N80">
+        <v>4916</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>792</v>
       </c>
@@ -4309,8 +4259,11 @@
       <c r="M81">
         <v>2728</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N81">
+        <v>2396</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1160</v>
       </c>
@@ -4350,8 +4303,11 @@
       <c r="M82">
         <v>3132</v>
       </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N82">
+        <v>3232</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1296</v>
       </c>
@@ -4391,8 +4347,11 @@
       <c r="M83">
         <v>7120</v>
       </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N83">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1016</v>
       </c>
@@ -4432,8 +4391,11 @@
       <c r="M84">
         <v>4660</v>
       </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N84">
+        <v>4384</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>716</v>
       </c>
@@ -4473,8 +4435,11 @@
       <c r="M85">
         <v>3260</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N85">
+        <v>2408</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1264</v>
       </c>
@@ -4514,8 +4479,11 @@
       <c r="M86">
         <v>2408</v>
       </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N86">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1756</v>
       </c>
@@ -4555,8 +4523,11 @@
       <c r="M87">
         <v>856</v>
       </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N87">
+        <v>4992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>620</v>
       </c>
@@ -4596,8 +4567,11 @@
       <c r="M88">
         <v>1620</v>
       </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N88">
+        <v>2712</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1036</v>
       </c>
@@ -4637,8 +4611,11 @@
       <c r="M89">
         <v>3048</v>
       </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N89">
+        <v>3448</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>960</v>
       </c>
@@ -4678,8 +4655,11 @@
       <c r="M90">
         <v>6300</v>
       </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N90">
+        <v>2664</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1232</v>
       </c>
@@ -4719,8 +4699,11 @@
       <c r="M91">
         <v>600</v>
       </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N91">
+        <v>7516</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>340</v>
       </c>
@@ -4760,8 +4743,11 @@
       <c r="M92">
         <v>6336</v>
       </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N92">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>704</v>
       </c>
@@ -4801,8 +4787,11 @@
       <c r="M93">
         <v>4724</v>
       </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N93">
+        <v>3164</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>680</v>
       </c>
@@ -4842,8 +4831,11 @@
       <c r="M94">
         <v>2540</v>
       </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N94">
+        <v>1564</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>780</v>
       </c>
@@ -4883,8 +4875,11 @@
       <c r="M95">
         <v>2872</v>
       </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N95">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1380</v>
       </c>
@@ -4924,8 +4919,11 @@
       <c r="M96">
         <v>3004</v>
       </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N96">
+        <v>3156</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1428</v>
       </c>
@@ -4965,8 +4963,11 @@
       <c r="M97">
         <v>4888</v>
       </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N97">
+        <v>5456</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1164</v>
       </c>
@@ -5006,8 +5007,11 @@
       <c r="M98">
         <v>7240</v>
       </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N98">
+        <v>3264</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>644</v>
       </c>
@@ -5047,8 +5051,11 @@
       <c r="M99">
         <v>1300</v>
       </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N99">
+        <v>2748</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1088</v>
       </c>
@@ -5088,8 +5095,11 @@
       <c r="M100">
         <v>5380</v>
       </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N100">
+        <v>5680</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2156</v>
       </c>
@@ -5128,6 +5138,9 @@
       </c>
       <c r="M101">
         <v>7092</v>
+      </c>
+      <c r="N101">
+        <v>2248</v>
       </c>
     </row>
   </sheetData>
@@ -5137,19 +5150,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54DEED1-2593-E04C-A7FC-E90A52BD3EED}">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -5189,8 +5208,11 @@
       <c r="N1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5246,8 +5268,12 @@
         <f>MIN(raw_scores!M2:'raw_scores'!M101)</f>
         <v>452</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2">
+        <f>MIN(raw_scores!N2:'raw_scores'!N101)</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5303,8 +5329,12 @@
         <f>MAX(raw_scores!M2:'raw_scores'!M101)</f>
         <v>12260</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <f>MAX(raw_scores!N2:'raw_scores'!N101)</f>
+        <v>10456</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5360,8 +5390,12 @@
         <f>AVERAGE(raw_scores!M2:'raw_scores'!M101)</f>
         <v>3919.92</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <f>AVERAGE(raw_scores!N2:'raw_scores'!N101)</f>
+        <v>4026.84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5417,8 +5451,12 @@
         <f>MEDIAN(raw_scores!M2:'raw_scores'!M101)</f>
         <v>3146</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <f>MEDIAN(raw_scores!N2:'raw_scores'!N101)</f>
+        <v>3240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5474,8 +5512,12 @@
         <f>STDEV(raw_scores!M2:'raw_scores'!M101)</f>
         <v>2408.4152116940281</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <f>STDEV(raw_scores!N2:'raw_scores'!N101)</f>
+        <v>2002.9936621230361</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5530,6 +5572,10 @@
       <c r="N7">
         <f>hyper!N2/hyper!N3</f>
         <v>74.37</v>
+      </c>
+      <c r="O7">
+        <f>hyper!O2/hyper!O3</f>
+        <v>69.239999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/Final Project/simulation.xlsx
+++ b/Final Project/simulation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgy/Downloads/AI_Proj/Final Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59BA51E-77F5-9148-A886-9962BAE59FD1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C36474D-79B7-9A45-A054-84463EB85DCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{CB718146-76ED-6B4B-ABE4-D20C3144D41F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{CB718146-76ED-6B4B-ABE4-D20C3144D41F}"/>
   </bookViews>
   <sheets>
     <sheet name="hyper" sheetId="4" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="32">
   <si>
     <t>tme in sec</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>rollout_d5e.4</t>
+  </si>
+  <si>
+    <t>rollout_smooth_d5</t>
   </si>
 </sst>
 </file>
@@ -486,9 +489,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4803BA00-13C4-D94B-9AED-D7BFB6F44303}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P3" sqref="P3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -507,7 +512,7 @@
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -553,8 +558,11 @@
       <c r="O1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -600,8 +608,11 @@
       <c r="O2">
         <v>6924</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <v>11478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -647,8 +658,11 @@
       <c r="O3">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -656,7 +670,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -664,7 +678,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -679,9 +693,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496C838B-E0FA-174D-B6C2-D799DE97087C}">
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O1" sqref="O1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -697,9 +713,10 @@
     <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -742,8 +759,11 @@
       <c r="N1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1012</v>
       </c>
@@ -786,8 +806,11 @@
       <c r="N2" s="1">
         <v>5340</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O2" s="1">
+        <v>3016</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3028</v>
       </c>
@@ -830,8 +853,11 @@
       <c r="N3">
         <v>4652</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O3">
+        <v>3272</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1120</v>
       </c>
@@ -874,8 +900,11 @@
       <c r="N4">
         <v>2796</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O4">
+        <v>4668</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1132</v>
       </c>
@@ -918,8 +947,11 @@
       <c r="N5">
         <v>6728</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O5">
+        <v>5196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1460</v>
       </c>
@@ -962,8 +994,11 @@
       <c r="N6">
         <v>2704</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O6">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1456</v>
       </c>
@@ -1006,8 +1041,11 @@
       <c r="N7">
         <v>5356</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7">
+        <v>5436</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>616</v>
       </c>
@@ -1050,8 +1088,11 @@
       <c r="N8">
         <v>2876</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1412</v>
       </c>
@@ -1094,8 +1135,11 @@
       <c r="N9">
         <v>3248</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9">
+        <v>7224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1440</v>
       </c>
@@ -1138,8 +1182,11 @@
       <c r="N10">
         <v>1760</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10">
+        <v>7100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>1332</v>
       </c>
@@ -1182,8 +1229,11 @@
       <c r="N11">
         <v>5336</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11">
+        <v>1532</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>1120</v>
       </c>
@@ -1226,8 +1276,11 @@
       <c r="N12">
         <v>3136</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12">
+        <v>8368</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>820</v>
       </c>
@@ -1270,8 +1323,11 @@
       <c r="N13">
         <v>4792</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>1088</v>
       </c>
@@ -1314,8 +1370,11 @@
       <c r="N14">
         <v>4784</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14">
+        <v>3116</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1276</v>
       </c>
@@ -1358,8 +1417,11 @@
       <c r="N15">
         <v>2292</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>484</v>
       </c>
@@ -1402,8 +1464,11 @@
       <c r="N16">
         <v>856</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O16">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>732</v>
       </c>
@@ -1446,8 +1511,11 @@
       <c r="N17">
         <v>7176</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O17">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1316</v>
       </c>
@@ -1490,8 +1558,11 @@
       <c r="N18">
         <v>3000</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <v>2860</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1132</v>
       </c>
@@ -1534,8 +1605,11 @@
       <c r="N19">
         <v>10456</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O19">
+        <v>5352</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>796</v>
       </c>
@@ -1578,8 +1652,11 @@
       <c r="N20">
         <v>6708</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O20">
+        <v>6100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1312</v>
       </c>
@@ -1622,8 +1699,11 @@
       <c r="N21">
         <v>3196</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O21">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>748</v>
       </c>
@@ -1666,8 +1746,11 @@
       <c r="N22">
         <v>584</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O22">
+        <v>2324</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1332</v>
       </c>
@@ -1710,8 +1793,11 @@
       <c r="N23">
         <v>4956</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O23">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2060</v>
       </c>
@@ -1754,8 +1840,11 @@
       <c r="N24">
         <v>1100</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O24">
+        <v>6760</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>896</v>
       </c>
@@ -1798,8 +1887,11 @@
       <c r="N25">
         <v>7040</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O25">
+        <v>3176</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>156</v>
       </c>
@@ -1842,8 +1934,11 @@
       <c r="N26">
         <v>5384</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O26">
+        <v>6904</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1448</v>
       </c>
@@ -1886,8 +1981,11 @@
       <c r="N27">
         <v>4588</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O27">
+        <v>3220</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>676</v>
       </c>
@@ -1930,8 +2028,11 @@
       <c r="N28">
         <v>2820</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O28">
+        <v>2872</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1120</v>
       </c>
@@ -1974,8 +2075,11 @@
       <c r="N29">
         <v>6280</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O29">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1112</v>
       </c>
@@ -2018,8 +2122,11 @@
       <c r="N30">
         <v>2428</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O30">
+        <v>2804</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>460</v>
       </c>
@@ -2062,8 +2169,11 @@
       <c r="N31">
         <v>320</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O31">
+        <v>5392</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>684</v>
       </c>
@@ -2106,8 +2216,11 @@
       <c r="N32">
         <v>5652</v>
       </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O32">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1008</v>
       </c>
@@ -2150,8 +2263,11 @@
       <c r="N33">
         <v>6692</v>
       </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33">
+        <v>6804</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>808</v>
       </c>
@@ -2194,8 +2310,11 @@
       <c r="N34">
         <v>1540</v>
       </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O34">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1052</v>
       </c>
@@ -2238,8 +2357,11 @@
       <c r="N35">
         <v>6828</v>
       </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35">
+        <v>2328</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1388</v>
       </c>
@@ -2282,8 +2404,11 @@
       <c r="N36">
         <v>5300</v>
       </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>564</v>
       </c>
@@ -2326,8 +2451,11 @@
       <c r="N37">
         <v>4756</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O37">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1080</v>
       </c>
@@ -2370,8 +2498,11 @@
       <c r="N38">
         <v>1512</v>
       </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O38">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>632</v>
       </c>
@@ -2414,8 +2545,11 @@
       <c r="N39">
         <v>6280</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O39">
+        <v>6332</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>128</v>
       </c>
@@ -2458,8 +2592,11 @@
       <c r="N40">
         <v>2356</v>
       </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O40">
+        <v>3120</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1228</v>
       </c>
@@ -2502,8 +2639,11 @@
       <c r="N41">
         <v>3192</v>
       </c>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O41">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>820</v>
       </c>
@@ -2546,8 +2686,11 @@
       <c r="N42">
         <v>5100</v>
       </c>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O42">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>2968</v>
       </c>
@@ -2590,8 +2733,11 @@
       <c r="N43">
         <v>3284</v>
       </c>
-    </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O43">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>2380</v>
       </c>
@@ -2634,8 +2780,11 @@
       <c r="N44">
         <v>3108</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O44">
+        <v>2460</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>992</v>
       </c>
@@ -2678,8 +2827,11 @@
       <c r="N45">
         <v>3224</v>
       </c>
-    </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O45">
+        <v>6604</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>864</v>
       </c>
@@ -2722,8 +2874,11 @@
       <c r="N46">
         <v>3084</v>
       </c>
-    </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O46">
+        <v>4456</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>704</v>
       </c>
@@ -2766,8 +2921,11 @@
       <c r="N47">
         <v>6744</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O47">
+        <v>7236</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1260</v>
       </c>
@@ -2810,8 +2968,11 @@
       <c r="N48">
         <v>3088</v>
       </c>
-    </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O48">
+        <v>2376</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1432</v>
       </c>
@@ -2854,8 +3015,11 @@
       <c r="N49">
         <v>752</v>
       </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O49">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>644</v>
       </c>
@@ -2898,8 +3062,11 @@
       <c r="N50">
         <v>5724</v>
       </c>
-    </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O50">
+        <v>6264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1204</v>
       </c>
@@ -2942,8 +3109,11 @@
       <c r="N51">
         <v>4624</v>
       </c>
-    </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O51">
+        <v>5468</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1332</v>
       </c>
@@ -2986,8 +3156,11 @@
       <c r="N52">
         <v>6720</v>
       </c>
-    </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O52">
+        <v>5640</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1352</v>
       </c>
@@ -3030,8 +3203,11 @@
       <c r="N53">
         <v>2468</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O53">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1212</v>
       </c>
@@ -3074,8 +3250,11 @@
       <c r="N54">
         <v>6868</v>
       </c>
-    </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O54">
+        <v>4944</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1076</v>
       </c>
@@ -3118,8 +3297,11 @@
       <c r="N55">
         <v>800</v>
       </c>
-    </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O55">
+        <v>3356</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1076</v>
       </c>
@@ -3162,8 +3344,11 @@
       <c r="N56">
         <v>2648</v>
       </c>
-    </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O56">
+        <v>6376</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1440</v>
       </c>
@@ -3206,8 +3391,11 @@
       <c r="N57">
         <v>2876</v>
       </c>
-    </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O57">
+        <v>2956</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>644</v>
       </c>
@@ -3250,8 +3438,11 @@
       <c r="N58">
         <v>4668</v>
       </c>
-    </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O58">
+        <v>6352</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>912</v>
       </c>
@@ -3294,8 +3485,11 @@
       <c r="N59">
         <v>6108</v>
       </c>
-    </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O59">
+        <v>2592</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>936</v>
       </c>
@@ -3338,8 +3532,11 @@
       <c r="N60">
         <v>8088</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O60">
+        <v>6220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1284</v>
       </c>
@@ -3382,8 +3579,11 @@
       <c r="N61">
         <v>1792</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O61">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>640</v>
       </c>
@@ -3426,8 +3626,11 @@
       <c r="N62">
         <v>7060</v>
       </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O62">
+        <v>2404</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>656</v>
       </c>
@@ -3470,8 +3673,11 @@
       <c r="N63">
         <v>5488</v>
       </c>
-    </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O63">
+        <v>7096</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>2004</v>
       </c>
@@ -3514,8 +3720,11 @@
       <c r="N64">
         <v>2912</v>
       </c>
-    </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O64">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>912</v>
       </c>
@@ -3558,8 +3767,11 @@
       <c r="N65">
         <v>2936</v>
       </c>
-    </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O65">
+        <v>3112</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>708</v>
       </c>
@@ -3602,8 +3814,11 @@
       <c r="N66">
         <v>3152</v>
       </c>
-    </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O66">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>456</v>
       </c>
@@ -3646,8 +3861,11 @@
       <c r="N67">
         <v>5740</v>
       </c>
-    </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O67">
+        <v>2912</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1140</v>
       </c>
@@ -3690,8 +3908,11 @@
       <c r="N68">
         <v>1540</v>
       </c>
-    </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O68">
+        <v>3132</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -3734,8 +3955,11 @@
       <c r="N69">
         <v>2908</v>
       </c>
-    </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O69">
+        <v>6216</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1044</v>
       </c>
@@ -3778,8 +4002,11 @@
       <c r="N70">
         <v>3216</v>
       </c>
-    </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O70">
+        <v>2364</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>632</v>
       </c>
@@ -3822,8 +4049,11 @@
       <c r="N71">
         <v>5320</v>
       </c>
-    </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O71">
+        <v>5840</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1232</v>
       </c>
@@ -3866,8 +4096,11 @@
       <c r="N72">
         <v>2536</v>
       </c>
-    </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O72">
+        <v>1484</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1400</v>
       </c>
@@ -3910,8 +4143,11 @@
       <c r="N73">
         <v>1196</v>
       </c>
-    </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O73">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2344</v>
       </c>
@@ -3954,8 +4190,11 @@
       <c r="N74">
         <v>7092</v>
       </c>
-    </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O74">
+        <v>5488</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>2376</v>
       </c>
@@ -3998,8 +4237,11 @@
       <c r="N75">
         <v>5564</v>
       </c>
-    </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O75">
+        <v>11436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1444</v>
       </c>
@@ -4042,8 +4284,11 @@
       <c r="N76">
         <v>5360</v>
       </c>
-    </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O76">
+        <v>3012</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>672</v>
       </c>
@@ -4086,8 +4331,11 @@
       <c r="N77">
         <v>2632</v>
       </c>
-    </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O77">
+        <v>5876</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1416</v>
       </c>
@@ -4130,8 +4378,11 @@
       <c r="N78">
         <v>5024</v>
       </c>
-    </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O78">
+        <v>2680</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1540</v>
       </c>
@@ -4174,8 +4425,11 @@
       <c r="N79">
         <v>6804</v>
       </c>
-    </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O79">
+        <v>4444</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1460</v>
       </c>
@@ -4218,8 +4472,11 @@
       <c r="N80">
         <v>4916</v>
       </c>
-    </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O80">
+        <v>5116</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>792</v>
       </c>
@@ -4262,8 +4519,11 @@
       <c r="N81">
         <v>2396</v>
       </c>
-    </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O81">
+        <v>7060</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1160</v>
       </c>
@@ -4306,8 +4566,11 @@
       <c r="N82">
         <v>3232</v>
       </c>
-    </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O82">
+        <v>2352</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1296</v>
       </c>
@@ -4350,8 +4613,11 @@
       <c r="N83">
         <v>2328</v>
       </c>
-    </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O83">
+        <v>5020</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1016</v>
       </c>
@@ -4394,8 +4660,11 @@
       <c r="N84">
         <v>4384</v>
       </c>
-    </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O84">
+        <v>2940</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>716</v>
       </c>
@@ -4438,8 +4707,11 @@
       <c r="N85">
         <v>2408</v>
       </c>
-    </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O85">
+        <v>5864</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1264</v>
       </c>
@@ -4482,8 +4754,11 @@
       <c r="N86">
         <v>2252</v>
       </c>
-    </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O86">
+        <v>2372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1756</v>
       </c>
@@ -4526,8 +4801,11 @@
       <c r="N87">
         <v>4992</v>
       </c>
-    </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O87">
+        <v>6388</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>620</v>
       </c>
@@ -4570,8 +4848,11 @@
       <c r="N88">
         <v>2712</v>
       </c>
-    </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O88">
+        <v>2668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1036</v>
       </c>
@@ -4614,8 +4895,11 @@
       <c r="N89">
         <v>3448</v>
       </c>
-    </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O89">
+        <v>5396</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>960</v>
       </c>
@@ -4658,8 +4942,11 @@
       <c r="N90">
         <v>2664</v>
       </c>
-    </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O90">
+        <v>3096</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1232</v>
       </c>
@@ -4702,8 +4989,11 @@
       <c r="N91">
         <v>7516</v>
       </c>
-    </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O91">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>340</v>
       </c>
@@ -4746,8 +5036,11 @@
       <c r="N92">
         <v>5668</v>
       </c>
-    </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O92">
+        <v>2172</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>704</v>
       </c>
@@ -4790,8 +5083,11 @@
       <c r="N93">
         <v>3164</v>
       </c>
-    </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O93">
+        <v>2456</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>680</v>
       </c>
@@ -4834,8 +5130,11 @@
       <c r="N94">
         <v>1564</v>
       </c>
-    </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O94">
+        <v>5092</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>780</v>
       </c>
@@ -4878,8 +5177,11 @@
       <c r="N95">
         <v>1440</v>
       </c>
-    </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O95">
+        <v>5124</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1380</v>
       </c>
@@ -4922,8 +5224,11 @@
       <c r="N96">
         <v>3156</v>
       </c>
-    </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O96">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1428</v>
       </c>
@@ -4966,8 +5271,11 @@
       <c r="N97">
         <v>5456</v>
       </c>
-    </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O97">
+        <v>4704</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1164</v>
       </c>
@@ -5010,8 +5318,11 @@
       <c r="N98">
         <v>3264</v>
       </c>
-    </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O98">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>644</v>
       </c>
@@ -5054,8 +5365,11 @@
       <c r="N99">
         <v>2748</v>
       </c>
-    </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O99">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1088</v>
       </c>
@@ -5098,8 +5412,11 @@
       <c r="N100">
         <v>5680</v>
       </c>
-    </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O100">
+        <v>3172</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2156</v>
       </c>
@@ -5141,6 +5458,9 @@
       </c>
       <c r="N101">
         <v>2248</v>
+      </c>
+      <c r="O101">
+        <v>1028</v>
       </c>
     </row>
   </sheetData>
@@ -5150,7 +5470,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54DEED1-2593-E04C-A7FC-E90A52BD3EED}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5166,9 +5486,10 @@
     <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -5211,8 +5532,11 @@
       <c r="O1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5272,8 +5596,12 @@
         <f>MIN(raw_scores!N2:'raw_scores'!N101)</f>
         <v>320</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2">
+        <f>MIN(raw_scores!O2:'raw_scores'!O101)</f>
+        <v>524</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5333,8 +5661,12 @@
         <f>MAX(raw_scores!N2:'raw_scores'!N101)</f>
         <v>10456</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P3">
+        <f>MAX(raw_scores!O2:'raw_scores'!O101)</f>
+        <v>11436</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5394,8 +5726,12 @@
         <f>AVERAGE(raw_scores!N2:'raw_scores'!N101)</f>
         <v>4026.84</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P4">
+        <f>AVERAGE(raw_scores!O2:'raw_scores'!O101)</f>
+        <v>3823.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5455,8 +5791,12 @@
         <f>MEDIAN(raw_scores!N2:'raw_scores'!N101)</f>
         <v>3240</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P5">
+        <f>MEDIAN(raw_scores!O2:'raw_scores'!O101)</f>
+        <v>3152</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5516,8 +5856,12 @@
         <f>STDEV(raw_scores!N2:'raw_scores'!N101)</f>
         <v>2002.9936621230361</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P6">
+        <f>STDEV(raw_scores!O2:'raw_scores'!O101)</f>
+        <v>2172.621388874265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -5576,6 +5920,10 @@
       <c r="O7">
         <f>hyper!O2/hyper!O3</f>
         <v>69.239999999999995</v>
+      </c>
+      <c r="P7">
+        <f>hyper!P2/hyper!P3</f>
+        <v>114.78</v>
       </c>
     </row>
   </sheetData>

--- a/Final Project/simulation.xlsx
+++ b/Final Project/simulation.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mgy/Downloads/AI_Proj/Final Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris Micek\OneDrive\Documents\Grad School\AI\Final Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C36474D-79B7-9A45-A054-84463EB85DCD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{3C36474D-79B7-9A45-A054-84463EB85DCD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{F46FEC6B-6C94-46C8-81A0-3A1C26DAF126}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="2" xr2:uid="{CB718146-76ED-6B4B-ABE4-D20C3144D41F}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" activeTab="2" xr2:uid="{CB718146-76ED-6B4B-ABE4-D20C3144D41F}"/>
   </bookViews>
   <sheets>
     <sheet name="hyper" sheetId="4" r:id="rId1"/>
     <sheet name="raw_scores" sheetId="1" r:id="rId2"/>
     <sheet name="statistics" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -129,7 +135,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -495,24 +501,24 @@
       <selection activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.84765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.34765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6484375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.34765625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1484375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -562,7 +568,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -612,7 +618,7 @@
         <v>11478</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -662,7 +668,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -670,7 +676,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -678,7 +684,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -699,24 +705,24 @@
       <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.34765625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.84765625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.6484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.1484375" bestFit="1" customWidth="1"/>
     <col min="12" max="14" width="12" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -763,7 +769,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>1012</v>
       </c>
@@ -810,7 +816,7 @@
         <v>3016</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3">
         <v>3028</v>
       </c>
@@ -857,7 +863,7 @@
         <v>3272</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4">
         <v>1120</v>
       </c>
@@ -904,7 +910,7 @@
         <v>4668</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>1132</v>
       </c>
@@ -951,7 +957,7 @@
         <v>5196</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>1460</v>
       </c>
@@ -998,7 +1004,7 @@
         <v>3184</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1456</v>
       </c>
@@ -1045,7 +1051,7 @@
         <v>5436</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>616</v>
       </c>
@@ -1092,7 +1098,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>1412</v>
       </c>
@@ -1139,7 +1145,7 @@
         <v>7224</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>1440</v>
       </c>
@@ -1186,7 +1192,7 @@
         <v>7100</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>1332</v>
       </c>
@@ -1233,7 +1239,7 @@
         <v>1532</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>1120</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>8368</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>820</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>1088</v>
       </c>
@@ -1374,7 +1380,7 @@
         <v>3116</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>1276</v>
       </c>
@@ -1421,7 +1427,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>484</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>732</v>
       </c>
@@ -1515,7 +1521,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>1316</v>
       </c>
@@ -1562,7 +1568,7 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>1132</v>
       </c>
@@ -1609,7 +1615,7 @@
         <v>5352</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>796</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>6100</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>1312</v>
       </c>
@@ -1703,7 +1709,7 @@
         <v>2220</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>748</v>
       </c>
@@ -1750,7 +1756,7 @@
         <v>2324</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>1332</v>
       </c>
@@ -1797,7 +1803,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>2060</v>
       </c>
@@ -1844,7 +1850,7 @@
         <v>6760</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>896</v>
       </c>
@@ -1891,7 +1897,7 @@
         <v>3176</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>156</v>
       </c>
@@ -1938,7 +1944,7 @@
         <v>6904</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>1448</v>
       </c>
@@ -1985,7 +1991,7 @@
         <v>3220</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>676</v>
       </c>
@@ -2032,7 +2038,7 @@
         <v>2872</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>1120</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>1112</v>
       </c>
@@ -2126,7 +2132,7 @@
         <v>2804</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>460</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>5392</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>684</v>
       </c>
@@ -2220,7 +2226,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33">
         <v>1008</v>
       </c>
@@ -2267,7 +2273,7 @@
         <v>6804</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15">
       <c r="A34">
         <v>808</v>
       </c>
@@ -2314,7 +2320,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35">
         <v>1052</v>
       </c>
@@ -2361,7 +2367,7 @@
         <v>2328</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36">
         <v>1388</v>
       </c>
@@ -2408,7 +2414,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15">
       <c r="A37">
         <v>564</v>
       </c>
@@ -2455,7 +2461,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38">
         <v>1080</v>
       </c>
@@ -2502,7 +2508,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39">
         <v>632</v>
       </c>
@@ -2549,7 +2555,7 @@
         <v>6332</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40">
         <v>128</v>
       </c>
@@ -2596,7 +2602,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41">
         <v>1228</v>
       </c>
@@ -2643,7 +2649,7 @@
         <v>6240</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42">
         <v>820</v>
       </c>
@@ -2690,7 +2696,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43">
         <v>2968</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>768</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44">
         <v>2380</v>
       </c>
@@ -2784,7 +2790,7 @@
         <v>2460</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45">
         <v>992</v>
       </c>
@@ -2831,7 +2837,7 @@
         <v>6604</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46">
         <v>864</v>
       </c>
@@ -2878,7 +2884,7 @@
         <v>4456</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47">
         <v>704</v>
       </c>
@@ -2925,7 +2931,7 @@
         <v>7236</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48">
         <v>1260</v>
       </c>
@@ -2972,7 +2978,7 @@
         <v>2376</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15">
       <c r="A49">
         <v>1432</v>
       </c>
@@ -3019,7 +3025,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15">
       <c r="A50">
         <v>644</v>
       </c>
@@ -3066,7 +3072,7 @@
         <v>6264</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15">
       <c r="A51">
         <v>1204</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>5468</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15">
       <c r="A52">
         <v>1332</v>
       </c>
@@ -3160,7 +3166,7 @@
         <v>5640</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15">
       <c r="A53">
         <v>1352</v>
       </c>
@@ -3207,7 +3213,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15">
       <c r="A54">
         <v>1212</v>
       </c>
@@ -3254,7 +3260,7 @@
         <v>4944</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15">
       <c r="A55">
         <v>1076</v>
       </c>
@@ -3301,7 +3307,7 @@
         <v>3356</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15">
       <c r="A56">
         <v>1076</v>
       </c>
@@ -3348,7 +3354,7 @@
         <v>6376</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15">
       <c r="A57">
         <v>1440</v>
       </c>
@@ -3395,7 +3401,7 @@
         <v>2956</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15">
       <c r="A58">
         <v>644</v>
       </c>
@@ -3442,7 +3448,7 @@
         <v>6352</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15">
       <c r="A59">
         <v>912</v>
       </c>
@@ -3489,7 +3495,7 @@
         <v>2592</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15">
       <c r="A60">
         <v>936</v>
       </c>
@@ -3536,7 +3542,7 @@
         <v>6220</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15">
       <c r="A61">
         <v>1284</v>
       </c>
@@ -3583,7 +3589,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15">
       <c r="A62">
         <v>640</v>
       </c>
@@ -3630,7 +3636,7 @@
         <v>2404</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15">
       <c r="A63">
         <v>656</v>
       </c>
@@ -3677,7 +3683,7 @@
         <v>7096</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15">
       <c r="A64">
         <v>2004</v>
       </c>
@@ -3724,7 +3730,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15">
       <c r="A65">
         <v>912</v>
       </c>
@@ -3771,7 +3777,7 @@
         <v>3112</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15">
       <c r="A66">
         <v>708</v>
       </c>
@@ -3818,7 +3824,7 @@
         <v>2080</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15">
       <c r="A67">
         <v>456</v>
       </c>
@@ -3865,7 +3871,7 @@
         <v>2912</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15">
       <c r="A68">
         <v>1140</v>
       </c>
@@ -3912,7 +3918,7 @@
         <v>3132</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15">
       <c r="A69">
         <v>2020</v>
       </c>
@@ -3959,7 +3965,7 @@
         <v>6216</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15">
       <c r="A70">
         <v>1044</v>
       </c>
@@ -4006,7 +4012,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15">
       <c r="A71">
         <v>632</v>
       </c>
@@ -4053,7 +4059,7 @@
         <v>5840</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15">
       <c r="A72">
         <v>1232</v>
       </c>
@@ -4100,7 +4106,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15">
       <c r="A73">
         <v>1400</v>
       </c>
@@ -4147,7 +4153,7 @@
         <v>4560</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15">
       <c r="A74">
         <v>2344</v>
       </c>
@@ -4194,7 +4200,7 @@
         <v>5488</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15">
       <c r="A75">
         <v>2376</v>
       </c>
@@ -4241,7 +4247,7 @@
         <v>11436</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15">
       <c r="A76">
         <v>1444</v>
       </c>
@@ -4288,7 +4294,7 @@
         <v>3012</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15">
       <c r="A77">
         <v>672</v>
       </c>
@@ -4335,7 +4341,7 @@
         <v>5876</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15">
       <c r="A78">
         <v>1416</v>
       </c>
@@ -4382,7 +4388,7 @@
         <v>2680</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15">
       <c r="A79">
         <v>1540</v>
       </c>
@@ -4429,7 +4435,7 @@
         <v>4444</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15">
       <c r="A80">
         <v>1460</v>
       </c>
@@ -4476,7 +4482,7 @@
         <v>5116</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15">
       <c r="A81">
         <v>792</v>
       </c>
@@ -4523,7 +4529,7 @@
         <v>7060</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15">
       <c r="A82">
         <v>1160</v>
       </c>
@@ -4570,7 +4576,7 @@
         <v>2352</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15">
       <c r="A83">
         <v>1296</v>
       </c>
@@ -4617,7 +4623,7 @@
         <v>5020</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15">
       <c r="A84">
         <v>1016</v>
       </c>
@@ -4664,7 +4670,7 @@
         <v>2940</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15">
       <c r="A85">
         <v>716</v>
       </c>
@@ -4711,7 +4717,7 @@
         <v>5864</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15">
       <c r="A86">
         <v>1264</v>
       </c>
@@ -4758,7 +4764,7 @@
         <v>2372</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15">
       <c r="A87">
         <v>1756</v>
       </c>
@@ -4805,7 +4811,7 @@
         <v>6388</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15">
       <c r="A88">
         <v>620</v>
       </c>
@@ -4852,7 +4858,7 @@
         <v>2668</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15">
       <c r="A89">
         <v>1036</v>
       </c>
@@ -4899,7 +4905,7 @@
         <v>5396</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15">
       <c r="A90">
         <v>960</v>
       </c>
@@ -4946,7 +4952,7 @@
         <v>3096</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15">
       <c r="A91">
         <v>1232</v>
       </c>
@@ -4993,7 +4999,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15">
       <c r="A92">
         <v>340</v>
       </c>
@@ -5040,7 +5046,7 @@
         <v>2172</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15">
       <c r="A93">
         <v>704</v>
       </c>
@@ -5087,7 +5093,7 @@
         <v>2456</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15">
       <c r="A94">
         <v>680</v>
       </c>
@@ -5134,7 +5140,7 @@
         <v>5092</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15">
       <c r="A95">
         <v>780</v>
       </c>
@@ -5181,7 +5187,7 @@
         <v>5124</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15">
       <c r="A96">
         <v>1380</v>
       </c>
@@ -5228,7 +5234,7 @@
         <v>664</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15">
       <c r="A97">
         <v>1428</v>
       </c>
@@ -5275,7 +5281,7 @@
         <v>4704</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15">
       <c r="A98">
         <v>1164</v>
       </c>
@@ -5322,7 +5328,7 @@
         <v>4568</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15">
       <c r="A99">
         <v>644</v>
       </c>
@@ -5369,7 +5375,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15">
       <c r="A100">
         <v>1088</v>
       </c>
@@ -5416,7 +5422,7 @@
         <v>3172</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15">
       <c r="A101">
         <v>2156</v>
       </c>
@@ -5472,24 +5478,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B54DEED1-2593-E04C-A7FC-E90A52BD3EED}">
   <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6484375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.1484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.34765625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="12.1640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="12.1484375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.6484375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1484375" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.1484375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.84765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16">
       <c r="B1" t="s">
         <v>2</v>
       </c>
@@ -5536,7 +5544,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -5601,7 +5609,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -5666,7 +5674,7 @@
         <v>11436</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -5731,7 +5739,7 @@
         <v>3823.24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -5796,7 +5804,7 @@
         <v>3152</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -5861,7 +5869,7 @@
         <v>2172.621388874265</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
         <v>16</v>
       </c>
